--- a/UserStudies/Digital Synesthesia - Proximity (Responses).xlsx
+++ b/UserStudies/Digital Synesthesia - Proximity (Responses).xlsx
@@ -649,7 +649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -782,6 +782,24 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -800,23 +818,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -946,11 +952,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142415360"/>
-        <c:axId val="142416896"/>
+        <c:axId val="120923648"/>
+        <c:axId val="120925184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142415360"/>
+        <c:axId val="120923648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142416896"/>
+        <c:crossAx val="120925184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -967,7 +973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142416896"/>
+        <c:axId val="120925184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,7 +984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142415360"/>
+        <c:crossAx val="120923648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1321,14 +1327,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CT90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN2" sqref="AN2:AN18"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="40" max="40" width="17.140625" style="55"/>
+    <col min="23" max="23" width="58.140625" customWidth="1"/>
+    <col min="40" max="40" width="17.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1449,7 +1456,7 @@
       <c r="AM1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AN1" s="50"/>
+      <c r="AN1" s="44"/>
       <c r="AO1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1557,7 +1564,7 @@
       <c r="CQ1" s="3"/>
       <c r="CR1" s="3"/>
     </row>
-    <row r="2" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28">
         <v>41799.516215277778</v>
       </c>
@@ -1624,7 +1631,7 @@
       <c r="V2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="56" t="s">
         <v>112</v>
       </c>
       <c r="X2" s="29" t="s">
@@ -1675,7 +1682,7 @@
       <c r="AM2" s="25">
         <v>1</v>
       </c>
-      <c r="AN2" s="51">
+      <c r="AN2" s="45">
         <f>AVERAGE(AM2,AI2,AE2,AA2)</f>
         <v>0.25</v>
       </c>
@@ -1794,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31">
         <v>41789.640509259298</v>
       </c>
@@ -1865,7 +1872,7 @@
       <c r="V3" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="38" t="s">
+      <c r="W3" s="57" t="s">
         <v>93</v>
       </c>
       <c r="X3" s="38" t="s">
@@ -1920,7 +1927,7 @@
         <f t="shared" ref="AM3:AM18" si="7">IF((AJ3=AK3), 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="AN3" s="51">
+      <c r="AN3" s="45">
         <f t="shared" ref="AN3:AN18" si="8">AVERAGE(AM3,AI3,AE3,AA3)</f>
         <v>0.75</v>
       </c>
@@ -2035,7 +2042,7 @@
       <c r="CQ3" s="8"/>
       <c r="CR3" s="8"/>
     </row>
-    <row r="4" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="31">
         <v>41788.588541666701</v>
       </c>
@@ -2106,7 +2113,7 @@
       <c r="V4" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="38" t="s">
+      <c r="W4" s="57" t="s">
         <v>90</v>
       </c>
       <c r="X4" s="38" t="s">
@@ -2161,7 +2168,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AN4" s="51">
+      <c r="AN4" s="45">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
@@ -2276,7 +2283,7 @@
       <c r="CQ4" s="8"/>
       <c r="CR4" s="8"/>
     </row>
-    <row r="5" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="31">
         <v>41787.523206018501</v>
       </c>
@@ -2347,7 +2354,7 @@
       <c r="V5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="W5" s="38" t="s">
+      <c r="W5" s="57" t="s">
         <v>87</v>
       </c>
       <c r="X5" s="38" t="s">
@@ -2402,7 +2409,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN5" s="51">
+      <c r="AN5" s="45">
         <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
@@ -2517,7 +2524,7 @@
       <c r="CQ5" s="8"/>
       <c r="CR5" s="8"/>
     </row>
-    <row r="6" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31">
         <v>41787.482152777797</v>
       </c>
@@ -2588,7 +2595,7 @@
       <c r="V6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="38" t="s">
+      <c r="W6" s="57" t="s">
         <v>85</v>
       </c>
       <c r="X6" s="38" t="s">
@@ -2643,7 +2650,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AN6" s="51">
+      <c r="AN6" s="45">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
@@ -2756,7 +2763,7 @@
       <c r="CQ6" s="8"/>
       <c r="CR6" s="8"/>
     </row>
-    <row r="7" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
         <v>41786.649988425903</v>
       </c>
@@ -2827,7 +2834,7 @@
       <c r="V7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="W7" s="38" t="s">
+      <c r="W7" s="57" t="s">
         <v>82</v>
       </c>
       <c r="X7" s="38" t="s">
@@ -2882,7 +2889,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AN7" s="51">
+      <c r="AN7" s="45">
         <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
@@ -2997,7 +3004,7 @@
       <c r="CQ7" s="8"/>
       <c r="CR7" s="8"/>
     </row>
-    <row r="8" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
         <v>41785.839861111097</v>
       </c>
@@ -3068,7 +3075,7 @@
       <c r="V8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="W8" s="38" t="s">
+      <c r="W8" s="57" t="s">
         <v>79</v>
       </c>
       <c r="X8" s="38" t="s">
@@ -3123,7 +3130,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AN8" s="51">
+      <c r="AN8" s="45">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3238,7 +3245,7 @@
       <c r="CQ8" s="8"/>
       <c r="CR8" s="8"/>
     </row>
-    <row r="9" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>41785.789375</v>
       </c>
@@ -3309,7 +3316,7 @@
       <c r="V9" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="W9" s="38" t="s">
+      <c r="W9" s="57" t="s">
         <v>75</v>
       </c>
       <c r="X9" s="38" t="s">
@@ -3364,7 +3371,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN9" s="51">
+      <c r="AN9" s="45">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
@@ -3479,7 +3486,7 @@
       <c r="CQ9" s="8"/>
       <c r="CR9" s="8"/>
     </row>
-    <row r="10" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>41784.608043981498</v>
       </c>
@@ -3550,7 +3557,7 @@
       <c r="V10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="W10" s="38" t="s">
+      <c r="W10" s="57" t="s">
         <v>71</v>
       </c>
       <c r="X10" s="38" t="s">
@@ -3605,7 +3612,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AN10" s="51">
+      <c r="AN10" s="45">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
@@ -3720,7 +3727,7 @@
       <c r="CQ10" s="8"/>
       <c r="CR10" s="8"/>
     </row>
-    <row r="11" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>41784.540532407402</v>
       </c>
@@ -3791,7 +3798,7 @@
       <c r="V11" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="W11" s="38" t="s">
+      <c r="W11" s="57" t="s">
         <v>68</v>
       </c>
       <c r="X11" s="38" t="s">
@@ -3846,7 +3853,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AN11" s="51">
+      <c r="AN11" s="45">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3961,7 +3968,7 @@
       <c r="CQ11" s="8"/>
       <c r="CR11" s="8"/>
     </row>
-    <row r="12" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
         <v>41782.688599537003</v>
       </c>
@@ -4032,7 +4039,7 @@
       <c r="V12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="W12" s="38" t="s">
+      <c r="W12" s="57" t="s">
         <v>65</v>
       </c>
       <c r="X12" s="38" t="s">
@@ -4087,7 +4094,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AN12" s="51">
+      <c r="AN12" s="45">
         <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
@@ -4202,7 +4209,7 @@
       <c r="CQ12" s="8"/>
       <c r="CR12" s="8"/>
     </row>
-    <row r="13" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
         <v>41781.732337963003</v>
       </c>
@@ -4273,7 +4280,7 @@
       <c r="V13" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="W13" s="38" t="s">
+      <c r="W13" s="57" t="s">
         <v>61</v>
       </c>
       <c r="X13" s="38" t="s">
@@ -4328,7 +4335,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="51">
+      <c r="AN13" s="45">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
@@ -4443,7 +4450,7 @@
       <c r="CQ13" s="8"/>
       <c r="CR13" s="8"/>
     </row>
-    <row r="14" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
         <v>41781.6901967593</v>
       </c>
@@ -4514,7 +4521,7 @@
       <c r="V14" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="W14" s="38" t="s">
+      <c r="W14" s="57" t="s">
         <v>58</v>
       </c>
       <c r="X14" s="38" t="s">
@@ -4569,7 +4576,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="51">
+      <c r="AN14" s="45">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
@@ -4684,7 +4691,7 @@
       <c r="CQ14" s="8"/>
       <c r="CR14" s="8"/>
     </row>
-    <row r="15" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31">
         <v>41781.5777662037</v>
       </c>
@@ -4755,7 +4762,7 @@
       <c r="V15" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="W15" s="38" t="s">
+      <c r="W15" s="57" t="s">
         <v>54</v>
       </c>
       <c r="X15" s="38" t="s">
@@ -4810,7 +4817,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="51">
+      <c r="AN15" s="45">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
@@ -4923,7 +4930,7 @@
       <c r="CQ15" s="8"/>
       <c r="CR15" s="8"/>
     </row>
-    <row r="16" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
         <v>41780.544675925899</v>
       </c>
@@ -4994,7 +5001,7 @@
       <c r="V16" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="W16" s="38" t="s">
+      <c r="W16" s="57" t="s">
         <v>48</v>
       </c>
       <c r="X16" s="38" t="s">
@@ -5049,7 +5056,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AN16" s="51">
+      <c r="AN16" s="45">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
@@ -5164,7 +5171,7 @@
       <c r="CQ16" s="8"/>
       <c r="CR16" s="8"/>
     </row>
-    <row r="17" spans="1:96" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>41779.515509259298</v>
       </c>
@@ -5235,7 +5242,7 @@
       <c r="V17" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="W17" s="38" t="s">
+      <c r="W17" s="57" t="s">
         <v>42</v>
       </c>
       <c r="X17" s="38" t="s">
@@ -5290,7 +5297,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="51">
+      <c r="AN17" s="45">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
@@ -5405,7 +5412,7 @@
       <c r="CQ17" s="8"/>
       <c r="CR17" s="8"/>
     </row>
-    <row r="18" spans="1:96" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>41778.681678240697</v>
       </c>
@@ -5476,7 +5483,7 @@
       <c r="V18" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="W18" s="38" t="s">
+      <c r="W18" s="57" t="s">
         <v>26</v>
       </c>
       <c r="X18" s="38" t="s">
@@ -5531,7 +5538,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AN18" s="51">
+      <c r="AN18" s="45">
         <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
@@ -5692,7 +5699,7 @@
         <f>SUM(AM2:AM18)</f>
         <v>11</v>
       </c>
-      <c r="AN19" s="54"/>
+      <c r="AN19" s="48"/>
       <c r="AO19" s="42"/>
       <c r="AP19" s="42"/>
       <c r="AQ19" s="42"/>
@@ -5802,7 +5809,7 @@
       <c r="AK20" s="6"/>
       <c r="AL20" s="6"/>
       <c r="AM20" s="9"/>
-      <c r="AN20" s="52"/>
+      <c r="AN20" s="46"/>
       <c r="AO20" s="6"/>
       <c r="AP20" s="6"/>
       <c r="AQ20" s="6"/>
@@ -5936,7 +5943,7 @@
         <f>SUMIF(AK2:AK18,"Circle",AM2:AM18)</f>
         <v>5</v>
       </c>
-      <c r="AN21" s="53"/>
+      <c r="AN21" s="47"/>
       <c r="AO21" s="6"/>
       <c r="AP21" s="6"/>
       <c r="AQ21" s="6"/>
@@ -6027,19 +6034,19 @@
       <c r="CR21" s="6"/>
     </row>
     <row r="22" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
       <c r="J22" s="6"/>
       <c r="K22" s="13" t="s">
         <v>105</v>
@@ -6112,7 +6119,7 @@
         <f>SUMIF(AK2:AK18,"Rectangle",AM2:AM18)</f>
         <v>2</v>
       </c>
-      <c r="AN22" s="53"/>
+      <c r="AN22" s="47"/>
       <c r="AO22" s="6"/>
       <c r="AP22" s="6"/>
       <c r="AQ22" s="6"/>
@@ -6216,11 +6223,11 @@
       <c r="G23" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="54">
         <f>SUM(L23,O23,R23,U23,AA26,AE26,AI26,AM26,AV26,AZ26,BD26,BH26)/SUM(L19,O19,U19,R19,AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
         <v>0.46296296296296297</v>
       </c>
-      <c r="I23" s="49"/>
+      <c r="I23" s="55"/>
       <c r="J23" s="6"/>
       <c r="K23" s="13" t="s">
         <v>106</v>
@@ -6293,7 +6300,7 @@
         <f>SUMIF(AK2:AK18,"Triangle",AM2:AM18)</f>
         <v>4</v>
       </c>
-      <c r="AN23" s="53"/>
+      <c r="AN23" s="47"/>
       <c r="AO23" s="6"/>
       <c r="AP23" s="6"/>
       <c r="AQ23" s="6"/>
@@ -6401,11 +6408,11 @@
       <c r="G24" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="54">
         <f>SUM(L22,O22,R22,U22,AA25,AE25,AI25,AM25,AV25,AZ25,BD25,BH25)/SUM(L19,O19,R19,U19,AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
         <v>0.52777777777777779</v>
       </c>
-      <c r="I24" s="49"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="9"/>
@@ -6436,7 +6443,7 @@
       <c r="AK24" s="6"/>
       <c r="AL24" s="6"/>
       <c r="AM24" s="9"/>
-      <c r="AN24" s="52"/>
+      <c r="AN24" s="46"/>
       <c r="AO24" s="6"/>
       <c r="AP24" s="6"/>
       <c r="AQ24" s="6"/>
@@ -6556,7 +6563,7 @@
         <f>SUMIF(B2:B18,"Left Hand",AM2:AM18)</f>
         <v>5</v>
       </c>
-      <c r="AN25" s="52"/>
+      <c r="AN25" s="46"/>
       <c r="AO25" s="6"/>
       <c r="AP25" s="6"/>
       <c r="AQ25" s="6"/>
@@ -6680,7 +6687,7 @@
         <f>SUMIF(B2:B18,"Right Hand",AM2:AM18)</f>
         <v>6</v>
       </c>
-      <c r="AN26" s="52"/>
+      <c r="AN26" s="46"/>
       <c r="AO26" s="6"/>
       <c r="AP26" s="6"/>
       <c r="AQ26" s="6"/>
@@ -6790,7 +6797,7 @@
       <c r="AK27" s="6"/>
       <c r="AL27" s="6"/>
       <c r="AM27" s="9"/>
-      <c r="AN27" s="52"/>
+      <c r="AN27" s="46"/>
       <c r="AO27" s="6"/>
       <c r="AP27" s="6"/>
       <c r="AQ27" s="6"/>
@@ -6888,7 +6895,7 @@
       <c r="AK28" s="6"/>
       <c r="AL28" s="6"/>
       <c r="AM28" s="9"/>
-      <c r="AN28" s="52"/>
+      <c r="AN28" s="46"/>
       <c r="AO28" s="6"/>
       <c r="AP28" s="6"/>
       <c r="AQ28" s="6"/>
@@ -6953,12 +6960,12 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="44" t="s">
+      <c r="G29" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
       <c r="K29" s="6"/>
       <c r="L29" s="9"/>
       <c r="M29" s="6"/>
@@ -7008,7 +7015,7 @@
         <f>SUMIF(AL2:AL18,"Less than 2 minutes",AM2:AM18)</f>
         <v>5</v>
       </c>
-      <c r="AN29" s="53"/>
+      <c r="AN29" s="47"/>
       <c r="AO29" s="6"/>
       <c r="AP29" s="6"/>
       <c r="AQ29" s="6"/>
@@ -7152,7 +7159,7 @@
         <f>SUMIF(AL2:AL18,"Between 2 and 4 minutes",AM2:AM18)</f>
         <v>6</v>
       </c>
-      <c r="AN30" s="53"/>
+      <c r="AN30" s="47"/>
       <c r="AO30" s="6"/>
       <c r="AP30" s="6"/>
       <c r="AQ30" s="6"/>
@@ -7281,7 +7288,7 @@
       <c r="AK31" s="6"/>
       <c r="AL31" s="6"/>
       <c r="AM31" s="9"/>
-      <c r="AN31" s="52"/>
+      <c r="AN31" s="46"/>
       <c r="AO31" s="6"/>
       <c r="AP31" s="6"/>
       <c r="AQ31" s="6"/>
@@ -7379,7 +7386,7 @@
       <c r="AK32" s="6"/>
       <c r="AL32" s="6"/>
       <c r="AM32" s="9"/>
-      <c r="AN32" s="52"/>
+      <c r="AN32" s="46"/>
       <c r="AO32" s="6"/>
       <c r="AP32" s="6"/>
       <c r="AQ32" s="6"/>
@@ -7477,7 +7484,7 @@
       <c r="AK33" s="6"/>
       <c r="AL33" s="6"/>
       <c r="AM33" s="9"/>
-      <c r="AN33" s="52"/>
+      <c r="AN33" s="46"/>
       <c r="AO33" s="6"/>
       <c r="AP33" s="6"/>
       <c r="AQ33" s="6"/>
@@ -7542,11 +7549,11 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="9"/>
@@ -7577,7 +7584,7 @@
       <c r="AK34" s="6"/>
       <c r="AL34" s="6"/>
       <c r="AM34" s="9"/>
-      <c r="AN34" s="52"/>
+      <c r="AN34" s="46"/>
       <c r="AO34" s="6"/>
       <c r="AP34" s="6"/>
       <c r="AQ34" s="6"/>
@@ -7645,11 +7652,11 @@
       <c r="G35" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="H35" s="48">
+      <c r="H35" s="54">
         <f>SUM(AA29,AE29,AI29,AM29,AV29,AZ29,BD29,BH29,)/SUM(AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
         <v>0.54794520547945202</v>
       </c>
-      <c r="I35" s="49"/>
+      <c r="I35" s="55"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="9"/>
@@ -7680,7 +7687,7 @@
       <c r="AK35" s="6"/>
       <c r="AL35" s="6"/>
       <c r="AM35" s="9"/>
-      <c r="AN35" s="52"/>
+      <c r="AN35" s="46"/>
       <c r="AO35" s="6"/>
       <c r="AP35" s="6"/>
       <c r="AQ35" s="6"/>
@@ -7748,11 +7755,11 @@
       <c r="G36" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="H36" s="48">
+      <c r="H36" s="54">
         <f>SUM(AA30,AE30,AI30,AM30,AV30,AZ30,BD30,BH30,)/SUM(AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
         <v>0.43835616438356162</v>
       </c>
-      <c r="I36" s="49"/>
+      <c r="I36" s="55"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="9"/>
@@ -7783,7 +7790,7 @@
       <c r="AK36" s="6"/>
       <c r="AL36" s="6"/>
       <c r="AM36" s="9"/>
-      <c r="AN36" s="52"/>
+      <c r="AN36" s="46"/>
       <c r="AO36" s="6"/>
       <c r="AP36" s="6"/>
       <c r="AQ36" s="6"/>
@@ -7881,7 +7888,7 @@
       <c r="AK37" s="6"/>
       <c r="AL37" s="6"/>
       <c r="AM37" s="9"/>
-      <c r="AN37" s="52"/>
+      <c r="AN37" s="46"/>
       <c r="AO37" s="6"/>
       <c r="AP37" s="6"/>
       <c r="AQ37" s="6"/>
@@ -7946,11 +7953,11 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="45" t="s">
+      <c r="G38" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
       <c r="J38" s="6"/>
       <c r="K38" s="13" t="s">
         <v>20</v>
@@ -8021,7 +8028,7 @@
         <f>AVERAGE(SUMIF(D2:D18,"Female",AM2:AM18))</f>
         <v>5</v>
       </c>
-      <c r="AN38" s="52"/>
+      <c r="AN38" s="46"/>
       <c r="AO38" s="6"/>
       <c r="AP38" s="6"/>
       <c r="AQ38" s="6"/>
@@ -8109,11 +8116,11 @@
       <c r="G39" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="48">
+      <c r="H39" s="54">
         <f>SUM(L38,O38,R38,U38,AA38,AE38,AI38,AM38,AV38,AZ38,BD38,BH38,)/SUM(L19,O19,R19,U19,AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
         <v>0.39814814814814814</v>
       </c>
-      <c r="I39" s="49"/>
+      <c r="I39" s="55"/>
       <c r="J39" s="6"/>
       <c r="K39" s="13" t="s">
         <v>41</v>
@@ -8184,7 +8191,7 @@
         <f>SUMIF(D2:D18,"Male",AM2:AM18)</f>
         <v>6</v>
       </c>
-      <c r="AN39" s="52"/>
+      <c r="AN39" s="46"/>
       <c r="AO39" s="6"/>
       <c r="AP39" s="6"/>
       <c r="AQ39" s="6"/>
@@ -8272,11 +8279,11 @@
       <c r="G40" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H40" s="48">
+      <c r="H40" s="54">
         <f>SUM(L39,O39,R39,U39,AA39,AE39,AI39,AM39,AV39,AZ39,BD39,BH39)/SUM(L19,O19,R19,U19,AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
         <v>0.61111111111111116</v>
       </c>
-      <c r="I40" s="49"/>
+      <c r="I40" s="55"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="9"/>
@@ -8307,7 +8314,7 @@
       <c r="AK40" s="6"/>
       <c r="AL40" s="6"/>
       <c r="AM40" s="9"/>
-      <c r="AN40" s="52"/>
+      <c r="AN40" s="46"/>
       <c r="AO40" s="6"/>
       <c r="AP40" s="6"/>
       <c r="AQ40" s="6"/>
@@ -8405,7 +8412,7 @@
       <c r="AK41" s="6"/>
       <c r="AL41" s="6"/>
       <c r="AM41" s="9"/>
-      <c r="AN41" s="52"/>
+      <c r="AN41" s="46"/>
       <c r="AO41" s="6"/>
       <c r="AP41" s="6"/>
       <c r="AQ41" s="6"/>
@@ -8503,7 +8510,7 @@
       <c r="AK42" s="6"/>
       <c r="AL42" s="6"/>
       <c r="AM42" s="9"/>
-      <c r="AN42" s="52"/>
+      <c r="AN42" s="46"/>
       <c r="AO42" s="6"/>
       <c r="AP42" s="6"/>
       <c r="AQ42" s="6"/>
@@ -8601,7 +8608,7 @@
       <c r="AK43" s="6"/>
       <c r="AL43" s="6"/>
       <c r="AM43" s="9"/>
-      <c r="AN43" s="52"/>
+      <c r="AN43" s="46"/>
       <c r="AO43" s="6"/>
       <c r="AP43" s="6"/>
       <c r="AQ43" s="6"/>
@@ -8699,7 +8706,7 @@
       <c r="AK44" s="6"/>
       <c r="AL44" s="6"/>
       <c r="AM44" s="9"/>
-      <c r="AN44" s="52"/>
+      <c r="AN44" s="46"/>
       <c r="AO44" s="6"/>
       <c r="AP44" s="6"/>
       <c r="AQ44" s="6"/>
@@ -8797,7 +8804,7 @@
       <c r="AK45" s="6"/>
       <c r="AL45" s="6"/>
       <c r="AM45" s="9"/>
-      <c r="AN45" s="52"/>
+      <c r="AN45" s="46"/>
       <c r="AO45" s="6"/>
       <c r="AP45" s="6"/>
       <c r="AQ45" s="6"/>
@@ -8895,7 +8902,7 @@
       <c r="AK46" s="6"/>
       <c r="AL46" s="6"/>
       <c r="AM46" s="9"/>
-      <c r="AN46" s="52"/>
+      <c r="AN46" s="46"/>
       <c r="AO46" s="6"/>
       <c r="AP46" s="6"/>
       <c r="AQ46" s="6"/>
@@ -8993,7 +9000,7 @@
       <c r="AK47" s="6"/>
       <c r="AL47" s="6"/>
       <c r="AM47" s="9"/>
-      <c r="AN47" s="52"/>
+      <c r="AN47" s="46"/>
       <c r="AO47" s="6"/>
       <c r="AP47" s="6"/>
       <c r="AQ47" s="6"/>
@@ -9091,7 +9098,7 @@
       <c r="AK48" s="6"/>
       <c r="AL48" s="6"/>
       <c r="AM48" s="9"/>
-      <c r="AN48" s="52"/>
+      <c r="AN48" s="46"/>
       <c r="AO48" s="6"/>
       <c r="AP48" s="6"/>
       <c r="AQ48" s="6"/>
@@ -9189,7 +9196,7 @@
       <c r="AK49" s="6"/>
       <c r="AL49" s="6"/>
       <c r="AM49" s="9"/>
-      <c r="AN49" s="52"/>
+      <c r="AN49" s="46"/>
       <c r="AO49" s="6"/>
       <c r="AP49" s="6"/>
       <c r="AQ49" s="6"/>
@@ -9287,7 +9294,7 @@
       <c r="AK50" s="6"/>
       <c r="AL50" s="6"/>
       <c r="AM50" s="6"/>
-      <c r="AN50" s="52"/>
+      <c r="AN50" s="46"/>
       <c r="AO50" s="9"/>
       <c r="AP50" s="6"/>
       <c r="AQ50" s="6"/>
@@ -9386,7 +9393,7 @@
       <c r="AK51" s="9"/>
       <c r="AL51" s="6"/>
       <c r="AM51" s="6"/>
-      <c r="AN51" s="52"/>
+      <c r="AN51" s="46"/>
       <c r="AO51" s="6"/>
       <c r="AP51" s="9"/>
       <c r="AQ51" s="6"/>
@@ -9447,26 +9454,26 @@
       <c r="CT51" s="6"/>
     </row>
     <row r="52" spans="1:98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="44" t="s">
+      <c r="A52" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="45" t="s">
+      <c r="F52" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="45" t="s">
+      <c r="K52" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="9"/>
@@ -9492,7 +9499,7 @@
       <c r="AK52" s="9"/>
       <c r="AL52" s="6"/>
       <c r="AM52" s="6"/>
-      <c r="AN52" s="52"/>
+      <c r="AN52" s="46"/>
       <c r="AO52" s="6"/>
       <c r="AP52" s="9"/>
       <c r="AQ52" s="6"/>
@@ -9610,7 +9617,7 @@
       <c r="AK53" s="9"/>
       <c r="AL53" s="6"/>
       <c r="AM53" s="6"/>
-      <c r="AN53" s="52"/>
+      <c r="AN53" s="46"/>
       <c r="AO53" s="6"/>
       <c r="AP53" s="9"/>
       <c r="AQ53" s="6"/>
@@ -9743,7 +9750,7 @@
       <c r="AK54" s="9"/>
       <c r="AL54" s="6"/>
       <c r="AM54" s="6"/>
-      <c r="AN54" s="52"/>
+      <c r="AN54" s="46"/>
       <c r="AO54" s="6"/>
       <c r="AP54" s="9"/>
       <c r="AQ54" s="6"/>
@@ -9867,7 +9874,7 @@
       <c r="AK55" s="9"/>
       <c r="AL55" s="6"/>
       <c r="AM55" s="6"/>
-      <c r="AN55" s="52"/>
+      <c r="AN55" s="46"/>
       <c r="AO55" s="6"/>
       <c r="AP55" s="9"/>
       <c r="AQ55" s="6"/>
@@ -9983,7 +9990,7 @@
       <c r="AK56" s="9"/>
       <c r="AL56" s="6"/>
       <c r="AM56" s="6"/>
-      <c r="AN56" s="52"/>
+      <c r="AN56" s="46"/>
       <c r="AO56" s="6"/>
       <c r="AP56" s="9"/>
       <c r="AQ56" s="6"/>
@@ -10083,7 +10090,7 @@
       <c r="AK57" s="9"/>
       <c r="AL57" s="6"/>
       <c r="AM57" s="6"/>
-      <c r="AN57" s="52"/>
+      <c r="AN57" s="46"/>
       <c r="AO57" s="6"/>
       <c r="AP57" s="9"/>
       <c r="AQ57" s="6"/>
@@ -10183,7 +10190,7 @@
       <c r="AK58" s="9"/>
       <c r="AL58" s="6"/>
       <c r="AM58" s="6"/>
-      <c r="AN58" s="52"/>
+      <c r="AN58" s="46"/>
       <c r="AO58" s="6"/>
       <c r="AP58" s="9"/>
       <c r="AQ58" s="6"/>
@@ -10283,7 +10290,7 @@
       <c r="AK59" s="6"/>
       <c r="AL59" s="6"/>
       <c r="AM59" s="6"/>
-      <c r="AN59" s="52"/>
+      <c r="AN59" s="46"/>
       <c r="AO59" s="9"/>
       <c r="AP59" s="6"/>
       <c r="AQ59" s="6"/>
@@ -10382,7 +10389,7 @@
       <c r="AK60" s="6"/>
       <c r="AL60" s="6"/>
       <c r="AM60" s="9"/>
-      <c r="AN60" s="52"/>
+      <c r="AN60" s="46"/>
       <c r="AO60" s="6"/>
       <c r="AP60" s="6"/>
       <c r="AQ60" s="6"/>
@@ -10480,7 +10487,7 @@
       <c r="AK61" s="6"/>
       <c r="AL61" s="6"/>
       <c r="AM61" s="9"/>
-      <c r="AN61" s="52"/>
+      <c r="AN61" s="46"/>
       <c r="AO61" s="6"/>
       <c r="AP61" s="6"/>
       <c r="AQ61" s="6"/>
@@ -10578,7 +10585,7 @@
       <c r="AK62" s="6"/>
       <c r="AL62" s="6"/>
       <c r="AM62" s="9"/>
-      <c r="AN62" s="52"/>
+      <c r="AN62" s="46"/>
       <c r="AO62" s="6"/>
       <c r="AP62" s="6"/>
       <c r="AQ62" s="6"/>
@@ -10676,7 +10683,7 @@
       <c r="AK63" s="6"/>
       <c r="AL63" s="6"/>
       <c r="AM63" s="9"/>
-      <c r="AN63" s="52"/>
+      <c r="AN63" s="46"/>
       <c r="AO63" s="6"/>
       <c r="AP63" s="6"/>
       <c r="AQ63" s="6"/>
@@ -10774,7 +10781,7 @@
       <c r="AK64" s="6"/>
       <c r="AL64" s="6"/>
       <c r="AM64" s="9"/>
-      <c r="AN64" s="52"/>
+      <c r="AN64" s="46"/>
       <c r="AO64" s="6"/>
       <c r="AP64" s="6"/>
       <c r="AQ64" s="6"/>
@@ -10872,7 +10879,7 @@
       <c r="AK65" s="6"/>
       <c r="AL65" s="6"/>
       <c r="AM65" s="9"/>
-      <c r="AN65" s="52"/>
+      <c r="AN65" s="46"/>
       <c r="AO65" s="6"/>
       <c r="AP65" s="6"/>
       <c r="AQ65" s="6"/>
@@ -10970,7 +10977,7 @@
       <c r="AK66" s="6"/>
       <c r="AL66" s="6"/>
       <c r="AM66" s="9"/>
-      <c r="AN66" s="52"/>
+      <c r="AN66" s="46"/>
       <c r="AO66" s="6"/>
       <c r="AP66" s="6"/>
       <c r="AQ66" s="6"/>
@@ -11068,7 +11075,7 @@
       <c r="AK67" s="6"/>
       <c r="AL67" s="6"/>
       <c r="AM67" s="9"/>
-      <c r="AN67" s="52"/>
+      <c r="AN67" s="46"/>
       <c r="AO67" s="6"/>
       <c r="AP67" s="6"/>
       <c r="AQ67" s="6"/>
@@ -11166,7 +11173,7 @@
       <c r="AK68" s="6"/>
       <c r="AL68" s="6"/>
       <c r="AM68" s="9"/>
-      <c r="AN68" s="52"/>
+      <c r="AN68" s="46"/>
       <c r="AO68" s="6"/>
       <c r="AP68" s="6"/>
       <c r="AQ68" s="6"/>
@@ -11264,7 +11271,7 @@
       <c r="AK69" s="6"/>
       <c r="AL69" s="6"/>
       <c r="AM69" s="9"/>
-      <c r="AN69" s="52"/>
+      <c r="AN69" s="46"/>
       <c r="AO69" s="6"/>
       <c r="AP69" s="6"/>
       <c r="AQ69" s="6"/>
@@ -11362,7 +11369,7 @@
       <c r="AK70" s="6"/>
       <c r="AL70" s="6"/>
       <c r="AM70" s="9"/>
-      <c r="AN70" s="52"/>
+      <c r="AN70" s="46"/>
       <c r="AO70" s="6"/>
       <c r="AP70" s="6"/>
       <c r="AQ70" s="6"/>
@@ -11460,7 +11467,7 @@
       <c r="AK71" s="6"/>
       <c r="AL71" s="6"/>
       <c r="AM71" s="9"/>
-      <c r="AN71" s="52"/>
+      <c r="AN71" s="46"/>
       <c r="AO71" s="6"/>
       <c r="AP71" s="6"/>
       <c r="AQ71" s="6"/>
@@ -11558,7 +11565,7 @@
       <c r="AK72" s="6"/>
       <c r="AL72" s="6"/>
       <c r="AM72" s="9"/>
-      <c r="AN72" s="52"/>
+      <c r="AN72" s="46"/>
       <c r="AO72" s="6"/>
       <c r="AP72" s="6"/>
       <c r="AQ72" s="6"/>
@@ -11656,7 +11663,7 @@
       <c r="AK73" s="6"/>
       <c r="AL73" s="6"/>
       <c r="AM73" s="9"/>
-      <c r="AN73" s="52"/>
+      <c r="AN73" s="46"/>
       <c r="AO73" s="6"/>
       <c r="AP73" s="6"/>
       <c r="AQ73" s="6"/>
@@ -11754,7 +11761,7 @@
       <c r="AK74" s="6"/>
       <c r="AL74" s="6"/>
       <c r="AM74" s="9"/>
-      <c r="AN74" s="52"/>
+      <c r="AN74" s="46"/>
       <c r="AO74" s="6"/>
       <c r="AP74" s="6"/>
       <c r="AQ74" s="6"/>
@@ -11852,7 +11859,7 @@
       <c r="AK75" s="6"/>
       <c r="AL75" s="6"/>
       <c r="AM75" s="9"/>
-      <c r="AN75" s="52"/>
+      <c r="AN75" s="46"/>
       <c r="AO75" s="6"/>
       <c r="AP75" s="6"/>
       <c r="AQ75" s="6"/>
@@ -11950,7 +11957,7 @@
       <c r="AK76" s="6"/>
       <c r="AL76" s="6"/>
       <c r="AM76" s="9"/>
-      <c r="AN76" s="52"/>
+      <c r="AN76" s="46"/>
       <c r="AO76" s="6"/>
       <c r="AP76" s="6"/>
       <c r="AQ76" s="6"/>
@@ -12048,7 +12055,7 @@
       <c r="AK77" s="6"/>
       <c r="AL77" s="6"/>
       <c r="AM77" s="9"/>
-      <c r="AN77" s="52"/>
+      <c r="AN77" s="46"/>
       <c r="AO77" s="6"/>
       <c r="AP77" s="6"/>
       <c r="AQ77" s="6"/>
@@ -12146,7 +12153,7 @@
       <c r="AK78" s="6"/>
       <c r="AL78" s="6"/>
       <c r="AM78" s="9"/>
-      <c r="AN78" s="52"/>
+      <c r="AN78" s="46"/>
       <c r="AO78" s="6"/>
       <c r="AP78" s="6"/>
       <c r="AQ78" s="6"/>
@@ -12244,7 +12251,7 @@
       <c r="AK79" s="6"/>
       <c r="AL79" s="6"/>
       <c r="AM79" s="9"/>
-      <c r="AN79" s="52"/>
+      <c r="AN79" s="46"/>
       <c r="AO79" s="6"/>
       <c r="AP79" s="6"/>
       <c r="AQ79" s="6"/>
@@ -12342,7 +12349,7 @@
       <c r="AK80" s="6"/>
       <c r="AL80" s="6"/>
       <c r="AM80" s="9"/>
-      <c r="AN80" s="52"/>
+      <c r="AN80" s="46"/>
       <c r="AO80" s="6"/>
       <c r="AP80" s="6"/>
       <c r="AQ80" s="6"/>
@@ -12440,7 +12447,7 @@
       <c r="AK81" s="6"/>
       <c r="AL81" s="6"/>
       <c r="AM81" s="9"/>
-      <c r="AN81" s="52"/>
+      <c r="AN81" s="46"/>
       <c r="AO81" s="6"/>
       <c r="AP81" s="6"/>
       <c r="AQ81" s="6"/>
@@ -12538,7 +12545,7 @@
       <c r="AK82" s="6"/>
       <c r="AL82" s="6"/>
       <c r="AM82" s="9"/>
-      <c r="AN82" s="52"/>
+      <c r="AN82" s="46"/>
       <c r="AO82" s="6"/>
       <c r="AP82" s="6"/>
       <c r="AQ82" s="6"/>
@@ -12636,7 +12643,7 @@
       <c r="AK83" s="6"/>
       <c r="AL83" s="6"/>
       <c r="AM83" s="9"/>
-      <c r="AN83" s="52"/>
+      <c r="AN83" s="46"/>
       <c r="AO83" s="6"/>
       <c r="AP83" s="6"/>
       <c r="AQ83" s="6"/>
@@ -12734,7 +12741,7 @@
       <c r="AK84" s="6"/>
       <c r="AL84" s="6"/>
       <c r="AM84" s="9"/>
-      <c r="AN84" s="52"/>
+      <c r="AN84" s="46"/>
       <c r="AO84" s="6"/>
       <c r="AP84" s="6"/>
       <c r="AQ84" s="6"/>
@@ -12832,7 +12839,7 @@
       <c r="AK85" s="6"/>
       <c r="AL85" s="6"/>
       <c r="AM85" s="9"/>
-      <c r="AN85" s="52"/>
+      <c r="AN85" s="46"/>
       <c r="AO85" s="6"/>
       <c r="AP85" s="6"/>
       <c r="AQ85" s="6"/>
@@ -12930,7 +12937,7 @@
       <c r="AK86" s="6"/>
       <c r="AL86" s="6"/>
       <c r="AM86" s="9"/>
-      <c r="AN86" s="52"/>
+      <c r="AN86" s="46"/>
       <c r="AO86" s="6"/>
       <c r="AP86" s="6"/>
       <c r="AQ86" s="6"/>
@@ -13028,7 +13035,7 @@
       <c r="AK87" s="6"/>
       <c r="AL87" s="6"/>
       <c r="AM87" s="9"/>
-      <c r="AN87" s="52"/>
+      <c r="AN87" s="46"/>
       <c r="AO87" s="6"/>
       <c r="AP87" s="6"/>
       <c r="AQ87" s="6"/>
@@ -13126,7 +13133,7 @@
       <c r="AK88" s="6"/>
       <c r="AL88" s="6"/>
       <c r="AM88" s="9"/>
-      <c r="AN88" s="52"/>
+      <c r="AN88" s="46"/>
       <c r="AO88" s="6"/>
       <c r="AP88" s="6"/>
       <c r="AQ88" s="6"/>
@@ -13224,7 +13231,7 @@
       <c r="AK89" s="6"/>
       <c r="AL89" s="6"/>
       <c r="AM89" s="9"/>
-      <c r="AN89" s="52"/>
+      <c r="AN89" s="46"/>
       <c r="AO89" s="6"/>
       <c r="AP89" s="6"/>
       <c r="AQ89" s="6"/>
@@ -13322,7 +13329,7 @@
       <c r="AK90" s="6"/>
       <c r="AL90" s="6"/>
       <c r="AM90" s="9"/>
-      <c r="AN90" s="52"/>
+      <c r="AN90" s="46"/>
       <c r="AO90" s="6"/>
       <c r="AP90" s="6"/>
       <c r="AQ90" s="6"/>

--- a/UserStudies/Digital Synesthesia - Proximity (Responses).xlsx
+++ b/UserStudies/Digital Synesthesia - Proximity (Responses).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="120">
   <si>
     <t>Timestamp</t>
   </si>
@@ -374,6 +374,9 @@
   <si>
     <t>Average correct Female Vs. Male</t>
   </si>
+  <si>
+    <t>Exercise 1 total percentage of correct</t>
+  </si>
 </sst>
 </file>
 
@@ -463,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -644,12 +647,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -728,9 +856,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -753,9 +878,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -803,6 +925,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -818,11 +949,53 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -952,11 +1125,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="120923648"/>
-        <c:axId val="120925184"/>
+        <c:axId val="138420992"/>
+        <c:axId val="138422528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120923648"/>
+        <c:axId val="138420992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +1138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120925184"/>
+        <c:crossAx val="138422528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -973,7 +1146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120925184"/>
+        <c:axId val="138422528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +1157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120923648"/>
+        <c:crossAx val="138420992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1327,18 +1500,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CT90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W34" sqref="W34"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U18" sqref="U2:U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="58.140625" customWidth="1"/>
-    <col min="40" max="40" width="17.140625" style="49"/>
+    <col min="40" max="40" width="17.140625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1641,7 @@
       <c r="AM1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AN1" s="44"/>
+      <c r="AN1" s="42"/>
       <c r="AO1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1565,200 +1750,200 @@
       <c r="CR1" s="3"/>
     </row>
     <row r="2" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28">
+      <c r="A2" s="27">
         <v>41799.516215277778</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="29">
         <v>17</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="30">
-        <v>1</v>
-      </c>
-      <c r="J2" s="30">
-        <v>1</v>
-      </c>
-      <c r="K2" s="30">
-        <v>1</v>
-      </c>
-      <c r="L2" s="25">
-        <v>1</v>
-      </c>
-      <c r="M2" s="30">
+      <c r="I2" s="29">
+        <v>1</v>
+      </c>
+      <c r="J2" s="58">
+        <v>1</v>
+      </c>
+      <c r="K2" s="59">
+        <v>1</v>
+      </c>
+      <c r="L2" s="60">
+        <v>1</v>
+      </c>
+      <c r="M2" s="59">
         <v>3</v>
       </c>
-      <c r="N2" s="30">
+      <c r="N2" s="59">
         <v>2</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="60">
         <v>0</v>
       </c>
-      <c r="P2" s="30">
+      <c r="P2" s="59">
         <v>2</v>
       </c>
-      <c r="Q2" s="30">
-        <v>1</v>
-      </c>
-      <c r="R2" s="25">
+      <c r="Q2" s="59">
+        <v>1</v>
+      </c>
+      <c r="R2" s="60">
         <v>0</v>
       </c>
-      <c r="S2" s="30">
+      <c r="S2" s="59">
         <v>0</v>
       </c>
-      <c r="T2" s="30">
+      <c r="T2" s="59">
         <v>0</v>
       </c>
-      <c r="U2" s="25">
-        <v>1</v>
-      </c>
-      <c r="V2" s="29" t="s">
+      <c r="U2" s="61">
+        <v>1</v>
+      </c>
+      <c r="V2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="56" t="s">
+      <c r="W2" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="Y2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="29" t="s">
+      <c r="Z2" s="28" t="s">
         <v>49</v>
       </c>
       <c r="AA2" s="25">
         <v>0</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AB2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="29" t="s">
+      <c r="AC2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="29" t="s">
+      <c r="AD2" s="28" t="s">
         <v>49</v>
       </c>
       <c r="AE2" s="25">
         <v>0</v>
       </c>
-      <c r="AF2" s="29" t="s">
+      <c r="AF2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="29" t="s">
+      <c r="AG2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AH2" s="29" t="s">
+      <c r="AH2" s="28" t="s">
         <v>49</v>
       </c>
       <c r="AI2" s="25">
         <v>0</v>
       </c>
-      <c r="AJ2" s="29" t="s">
+      <c r="AJ2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AK2" s="29" t="s">
+      <c r="AK2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AL2" s="29" t="s">
+      <c r="AL2" s="28" t="s">
         <v>31</v>
       </c>
       <c r="AM2" s="25">
         <v>1</v>
       </c>
-      <c r="AN2" s="45">
+      <c r="AN2" s="43">
         <f>AVERAGE(AM2,AI2,AE2,AA2)</f>
         <v>0.25</v>
       </c>
-      <c r="AO2" s="29" t="s">
+      <c r="AO2" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="29" t="s">
+      <c r="AP2" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="29" t="s">
+      <c r="AQ2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AR2" s="29" t="s">
+      <c r="AR2" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="AS2" s="29" t="s">
+      <c r="AS2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AT2" s="29" t="s">
+      <c r="AT2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="29" t="s">
+      <c r="AU2" s="28" t="s">
         <v>51</v>
       </c>
       <c r="AV2" s="25">
         <v>1</v>
       </c>
-      <c r="AW2" s="29" t="s">
+      <c r="AW2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AX2" s="29" t="s">
+      <c r="AX2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AY2" s="29" t="s">
+      <c r="AY2" s="28" t="s">
         <v>51</v>
       </c>
       <c r="AZ2" s="25">
         <v>0</v>
       </c>
-      <c r="BA2" s="29" t="s">
+      <c r="BA2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="BB2" s="29" t="s">
+      <c r="BB2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="BC2" s="29" t="s">
+      <c r="BC2" s="28" t="s">
         <v>35</v>
       </c>
       <c r="BD2" s="25">
         <v>1</v>
       </c>
-      <c r="BE2" s="29" t="s">
+      <c r="BE2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="BF2" s="29" t="s">
+      <c r="BF2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="29" t="s">
+      <c r="BG2" s="28" t="s">
         <v>35</v>
       </c>
       <c r="BH2" s="25">
         <v>0</v>
       </c>
-      <c r="BI2" s="29" t="s">
+      <c r="BI2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="BJ2" s="29" t="s">
+      <c r="BJ2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="BK2" s="29" t="s">
+      <c r="BK2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="BL2" s="29" t="s">
+      <c r="BL2" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="BM2" s="29" t="s">
+      <c r="BM2" s="28" t="s">
         <v>78</v>
       </c>
       <c r="BN2" s="8"/>
@@ -1802,212 +1987,211 @@
       </c>
     </row>
     <row r="3" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31">
+      <c r="A3" s="30">
         <v>41789.640509259298</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <v>16</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="32">
-        <v>1</v>
-      </c>
-      <c r="J3" s="32">
+      <c r="I3" s="31">
+        <v>1</v>
+      </c>
+      <c r="J3" s="62">
         <v>2</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="36">
         <v>2</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="15">
         <f t="shared" ref="L3:L18" si="0">IF((J3=K3), 1,0)</f>
         <v>1</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="36">
         <v>3</v>
       </c>
-      <c r="N3" s="32">
-        <v>1</v>
-      </c>
-      <c r="O3" s="9">
+      <c r="N3" s="36">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15">
         <f t="shared" ref="O3:O18" si="1">IF((M3=N3), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="38">
+      <c r="P3" s="36">
         <v>2</v>
       </c>
-      <c r="Q3" s="38">
+      <c r="Q3" s="36">
         <v>2</v>
       </c>
-      <c r="R3" s="9">
-        <f t="shared" ref="R3:R18" si="2">IF((P3=Q3), 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="S3" s="38">
+      <c r="R3" s="15">
+        <v>1</v>
+      </c>
+      <c r="S3" s="36">
         <v>2</v>
       </c>
-      <c r="T3" s="38">
+      <c r="T3" s="36">
         <v>2</v>
       </c>
-      <c r="U3" s="9">
-        <f t="shared" ref="U3:U18" si="3">IF((S3=T3), 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="V3" s="38" t="s">
+      <c r="U3" s="63">
+        <f t="shared" ref="U3:U18" si="2">IF((S3=T3), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="V3" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="57" t="s">
+      <c r="W3" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="X3" s="38" t="s">
+      <c r="X3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="38" t="s">
+      <c r="Y3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="38" t="s">
+      <c r="Z3" s="36" t="s">
         <v>49</v>
       </c>
       <c r="AA3" s="9">
-        <f t="shared" ref="AA3:AA18" si="4">IF((X3=Y3), 1, 0)</f>
+        <f t="shared" ref="AA3:AA18" si="3">IF((X3=Y3), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="38" t="s">
+      <c r="AB3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="38" t="s">
+      <c r="AC3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" s="38" t="s">
+      <c r="AD3" s="36" t="s">
         <v>31</v>
       </c>
       <c r="AE3" s="9">
-        <f t="shared" ref="AE3:AE18" si="5">IF((AB3=AC3), 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="AF3" s="38" t="s">
+        <f t="shared" ref="AE3:AE18" si="4">IF((AB3=AC3), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="AF3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="38" t="s">
+      <c r="AG3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AH3" s="38" t="s">
+      <c r="AH3" s="36" t="s">
         <v>49</v>
       </c>
       <c r="AI3" s="9">
-        <f t="shared" ref="AI3:AI18" si="6">IF((AF3=AG3), 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="38" t="s">
+        <f t="shared" ref="AI3:AI18" si="5">IF((AF3=AG3), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AK3" s="38" t="s">
+      <c r="AK3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AL3" s="38" t="s">
+      <c r="AL3" s="36" t="s">
         <v>49</v>
       </c>
       <c r="AM3" s="9">
-        <f t="shared" ref="AM3:AM18" si="7">IF((AJ3=AK3), 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="AN3" s="45">
-        <f t="shared" ref="AN3:AN18" si="8">AVERAGE(AM3,AI3,AE3,AA3)</f>
+        <f t="shared" ref="AM3:AM18" si="6">IF((AJ3=AK3), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN3" s="43">
+        <f t="shared" ref="AN3:AN18" si="7">AVERAGE(AM3,AI3,AE3,AA3)</f>
         <v>0.75</v>
       </c>
-      <c r="AO3" s="38" t="s">
+      <c r="AO3" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="AP3" s="38" t="s">
+      <c r="AP3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AQ3" s="38" t="s">
+      <c r="AQ3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AR3" s="38" t="s">
+      <c r="AR3" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="AS3" s="38" t="s">
+      <c r="AS3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AT3" s="38" t="s">
+      <c r="AT3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="38" t="s">
+      <c r="AU3" s="36" t="s">
         <v>35</v>
       </c>
       <c r="AV3" s="9">
-        <f t="shared" ref="AV3:AV18" si="9">IF((AS3=AT3), 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="AW3" s="38" t="s">
+        <f t="shared" ref="AV3:AV18" si="8">IF((AS3=AT3), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="AX3" s="38" t="s">
+      <c r="AX3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="AY3" s="38" t="s">
+      <c r="AY3" s="36" t="s">
         <v>35</v>
       </c>
       <c r="AZ3" s="9">
-        <f t="shared" ref="AZ3:AZ18" si="10">IF((AW3=AX3), 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="BA3" s="38" t="s">
+        <f t="shared" ref="AZ3:AZ18" si="9">IF((AW3=AX3), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BA3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="BB3" s="38" t="s">
+      <c r="BB3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="BC3" s="38" t="s">
+      <c r="BC3" s="36" t="s">
         <v>35</v>
       </c>
       <c r="BD3" s="9">
-        <f t="shared" ref="BD3:BD17" si="11">IF((BA3=BB3), 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="BE3" s="38" t="s">
+        <f t="shared" ref="BD3:BD17" si="10">IF((BA3=BB3), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="BF3" s="38" t="s">
+      <c r="BF3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="BG3" s="38" t="s">
+      <c r="BG3" s="36" t="s">
         <v>35</v>
       </c>
       <c r="BH3" s="9">
-        <f t="shared" ref="BH3:BH17" si="12">IF((BE3=BF3), 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="BI3" s="38" t="s">
+        <f t="shared" ref="BH3:BH17" si="11">IF((BE3=BF3), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BI3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="BJ3" s="38" t="s">
+      <c r="BJ3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="BK3" s="38" t="s">
+      <c r="BK3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="BL3" s="38" t="s">
+      <c r="BL3" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="BM3" s="38" t="s">
+      <c r="BM3" s="36" t="s">
         <v>39</v>
       </c>
       <c r="BN3" s="8"/>
@@ -2043,212 +2227,212 @@
       <c r="CR3" s="8"/>
     </row>
     <row r="4" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31">
+      <c r="A4" s="30">
         <v>41788.588541666701</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="31">
         <v>15</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="32">
-        <v>1</v>
-      </c>
-      <c r="J4" s="32">
-        <v>1</v>
-      </c>
-      <c r="K4" s="32">
-        <v>1</v>
-      </c>
-      <c r="L4" s="9">
+      <c r="I4" s="31">
+        <v>1</v>
+      </c>
+      <c r="J4" s="62">
+        <v>1</v>
+      </c>
+      <c r="K4" s="36">
+        <v>1</v>
+      </c>
+      <c r="L4" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M4" s="32">
-        <v>1</v>
-      </c>
-      <c r="N4" s="32">
+      <c r="M4" s="36">
+        <v>1</v>
+      </c>
+      <c r="N4" s="36">
         <v>2</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P4" s="38">
+      <c r="P4" s="36">
         <v>0</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4" s="36">
         <v>0</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="15">
+        <f t="shared" ref="R3:R18" si="12">IF((P4=Q4), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="36">
+        <v>0</v>
+      </c>
+      <c r="T4" s="36">
+        <v>3</v>
+      </c>
+      <c r="U4" s="63">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="S4" s="38">
         <v>0</v>
       </c>
-      <c r="T4" s="38">
-        <v>3</v>
-      </c>
-      <c r="U4" s="9">
+      <c r="V4" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="W4" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="X4" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V4" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="W4" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="X4" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" s="38" t="s">
+      <c r="AB4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA4" s="9">
+      <c r="AC4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE4" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="38" t="s">
+      <c r="AF4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AC4" s="38" t="s">
+      <c r="AG4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="AD4" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE4" s="9">
+      <c r="AH4" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI4" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="38" t="s">
+      <c r="AJ4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AG4" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH4" s="38" t="s">
+      <c r="AK4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AI4" s="9">
+      <c r="AM4" s="9">
         <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AN4" s="43">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="AO4" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP4" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ4" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR4" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV4" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ4" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK4" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL4" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM4" s="9">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AN4" s="45">
-        <f t="shared" si="8"/>
-        <v>0.25</v>
-      </c>
-      <c r="AO4" s="38" t="s">
+      <c r="AW4" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX4" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY4" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ4" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="BA4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC4" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD4" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BE4" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF4" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH4" s="9">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BI4" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ4" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="BK4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AP4" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ4" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR4" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS4" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT4" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU4" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV4" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AW4" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX4" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY4" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ4" s="9">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="BA4" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB4" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="BC4" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD4" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BE4" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF4" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG4" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH4" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="BI4" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="BJ4" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="BK4" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="BL4" s="38" t="s">
+      <c r="BL4" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="BM4" s="38" t="s">
+      <c r="BM4" s="36" t="s">
         <v>39</v>
       </c>
       <c r="BN4" s="8"/>
@@ -2284,212 +2468,212 @@
       <c r="CR4" s="8"/>
     </row>
     <row r="5" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31">
+      <c r="A5" s="30">
         <v>41787.523206018501</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>14</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="32">
-        <v>1</v>
-      </c>
-      <c r="J5" s="32">
-        <v>1</v>
-      </c>
-      <c r="K5" s="32">
-        <v>1</v>
-      </c>
-      <c r="L5" s="9">
+      <c r="I5" s="31">
+        <v>1</v>
+      </c>
+      <c r="J5" s="62">
+        <v>1</v>
+      </c>
+      <c r="K5" s="36">
+        <v>1</v>
+      </c>
+      <c r="L5" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="36">
         <v>2</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="36">
         <v>2</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P5" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="38">
-        <v>1</v>
-      </c>
-      <c r="R5" s="9">
+      <c r="P5" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="36">
+        <v>1</v>
+      </c>
+      <c r="R5" s="15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S5" s="36">
+        <v>0</v>
+      </c>
+      <c r="T5" s="36">
+        <v>0</v>
+      </c>
+      <c r="U5" s="63">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S5" s="38">
+      <c r="V5" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="X5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AB5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE5" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH5" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI5" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL5" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM5" s="9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T5" s="38">
+      <c r="AN5" s="43">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="AO5" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP5" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ5" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR5" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU5" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV5" s="9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AW5" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX5" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY5" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ5" s="9">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U5" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V5" s="38" t="s">
+      <c r="BA5" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB5" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC5" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD5" s="9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BE5" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG5" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH5" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BI5" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="W5" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="X5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA5" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB5" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC5" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD5" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE5" s="9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AF5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH5" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI5" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL5" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM5" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN5" s="45">
-        <f t="shared" si="8"/>
-        <v>0.75</v>
-      </c>
-      <c r="AO5" s="38" t="s">
+      <c r="BJ5" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AP5" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ5" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR5" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS5" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT5" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU5" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV5" s="9">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AW5" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX5" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY5" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ5" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BA5" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB5" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC5" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD5" s="9">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="BE5" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF5" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="BG5" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="BH5" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BI5" s="38" t="s">
+      <c r="BK5" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="BJ5" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="BK5" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="BL5" s="38" t="s">
+      <c r="BL5" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="BM5" s="38" t="s">
+      <c r="BM5" s="36" t="s">
         <v>39</v>
       </c>
       <c r="BN5" s="8"/>
@@ -2525,210 +2709,210 @@
       <c r="CR5" s="8"/>
     </row>
     <row r="6" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31">
+      <c r="A6" s="30">
         <v>41787.482152777797</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>13</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="32">
-        <v>1</v>
-      </c>
-      <c r="J6" s="32">
+      <c r="I6" s="31">
+        <v>1</v>
+      </c>
+      <c r="J6" s="62">
         <v>2</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="36">
         <v>3</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="36">
         <v>2</v>
       </c>
-      <c r="N6" s="32">
-        <v>1</v>
-      </c>
-      <c r="O6" s="9">
+      <c r="N6" s="36">
+        <v>1</v>
+      </c>
+      <c r="O6" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P6" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="38">
-        <v>1</v>
-      </c>
-      <c r="R6" s="9">
+      <c r="P6" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="36">
+        <v>1</v>
+      </c>
+      <c r="R6" s="15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S6" s="36">
+        <v>3</v>
+      </c>
+      <c r="T6" s="36">
+        <v>2</v>
+      </c>
+      <c r="U6" s="63">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="S6" s="38">
-        <v>3</v>
-      </c>
-      <c r="T6" s="38">
-        <v>2</v>
-      </c>
-      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V6" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="W6" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="X6" s="38" t="s">
+      <c r="AB6" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z6" s="38" t="s">
+      <c r="AC6" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD6" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AA6" s="9">
+      <c r="AE6" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="38" t="s">
+      <c r="AF6" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AC6" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD6" s="38" t="s">
+      <c r="AG6" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH6" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AE6" s="9">
+      <c r="AI6" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="38" t="s">
+      <c r="AJ6" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AG6" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH6" s="38" t="s">
+      <c r="AK6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL6" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AI6" s="9">
+      <c r="AM6" s="9">
         <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AN6" s="43">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="AO6" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP6" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ6" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR6" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV6" s="9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AW6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX6" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ6" s="9">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AJ6" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK6" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL6" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM6" s="9">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AN6" s="45">
-        <f t="shared" si="8"/>
-        <v>0.25</v>
-      </c>
-      <c r="AO6" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP6" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ6" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR6" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS6" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT6" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU6" s="38" t="s">
+      <c r="BA6" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB6" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="AV6" s="9">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AW6" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AX6" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY6" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ6" s="9">
+      <c r="BD6" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BA6" s="38" t="s">
+      <c r="BE6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF6" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="BB6" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC6" s="38" t="s">
+      <c r="BG6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="BD6" s="9">
+      <c r="BH6" s="9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BE6" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF6" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="BG6" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH6" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BI6" s="38" t="s">
+      <c r="BI6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="BJ6" s="38" t="s">
+      <c r="BJ6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="BK6" s="38" t="s">
+      <c r="BK6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="BL6" s="38"/>
-      <c r="BM6" s="38" t="s">
+      <c r="BL6" s="36"/>
+      <c r="BM6" s="36" t="s">
         <v>39</v>
       </c>
       <c r="BN6" s="8"/>
@@ -2764,212 +2948,212 @@
       <c r="CR6" s="8"/>
     </row>
     <row r="7" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31">
+      <c r="A7" s="30">
         <v>41786.649988425903</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>12</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="32">
-        <v>1</v>
-      </c>
-      <c r="J7" s="32">
+      <c r="I7" s="31">
+        <v>1</v>
+      </c>
+      <c r="J7" s="62">
         <v>3</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="36">
         <v>3</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="36">
         <v>3</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="36">
         <v>2</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="36">
         <v>0</v>
       </c>
-      <c r="Q7" s="38">
+      <c r="Q7" s="36">
         <v>0</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S7" s="36">
+        <v>3</v>
+      </c>
+      <c r="T7" s="36">
+        <v>3</v>
+      </c>
+      <c r="U7" s="63">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S7" s="38">
-        <v>3</v>
-      </c>
-      <c r="T7" s="38">
-        <v>3</v>
-      </c>
-      <c r="U7" s="9">
+      <c r="V7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="X7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA7" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V7" s="38" t="s">
+      <c r="AB7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC7" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD7" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE7" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH7" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI7" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK7" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL7" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM7" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AN7" s="43">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="AO7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="W7" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="X7" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y7" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA7" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB7" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC7" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD7" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE7" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG7" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH7" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI7" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK7" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL7" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM7" s="9">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AN7" s="45">
+      <c r="AP7" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ7" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR7" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU7" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV7" s="9">
         <f t="shared" si="8"/>
-        <v>0.75</v>
-      </c>
-      <c r="AO7" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX7" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY7" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ7" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="BA7" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB7" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC7" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD7" s="9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BE7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG7" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH7" s="9">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BI7" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="BJ7" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="BK7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AP7" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ7" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR7" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS7" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT7" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU7" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV7" s="9">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AW7" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX7" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY7" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ7" s="9">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="BA7" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB7" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="BC7" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD7" s="9">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="BE7" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF7" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="BG7" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH7" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="BI7" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="BJ7" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="BK7" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="BL7" s="38" t="s">
+      <c r="BL7" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="BM7" s="38" t="s">
+      <c r="BM7" s="36" t="s">
         <v>39</v>
       </c>
       <c r="BN7" s="8"/>
@@ -3005,212 +3189,212 @@
       <c r="CR7" s="8"/>
     </row>
     <row r="8" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31">
+      <c r="A8" s="30">
         <v>41785.839861111097</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>11</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="32">
-        <v>1</v>
-      </c>
-      <c r="J8" s="32">
-        <v>1</v>
-      </c>
-      <c r="K8" s="32">
-        <v>1</v>
-      </c>
-      <c r="L8" s="9">
+      <c r="I8" s="31">
+        <v>1</v>
+      </c>
+      <c r="J8" s="62">
+        <v>1</v>
+      </c>
+      <c r="K8" s="36">
+        <v>1</v>
+      </c>
+      <c r="L8" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="36">
         <v>3</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="36">
         <v>3</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P8" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="38">
-        <v>1</v>
-      </c>
-      <c r="R8" s="9">
+      <c r="P8" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="36">
+        <v>1</v>
+      </c>
+      <c r="R8" s="15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S8" s="36">
+        <v>3</v>
+      </c>
+      <c r="T8" s="36">
+        <v>2</v>
+      </c>
+      <c r="U8" s="63">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="S8" s="38">
-        <v>3</v>
-      </c>
-      <c r="T8" s="38">
-        <v>2</v>
-      </c>
-      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="X8" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD8" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE8" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH8" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI8" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL8" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM8" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AN8" s="43">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AO8" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP8" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ8" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR8" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU8" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV8" s="9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AW8" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX8" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY8" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ8" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="BA8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="BB8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC8" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD8" s="9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BE8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG8" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH8" s="9">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BI8" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="W8" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="X8" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y8" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA8" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD8" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE8" s="9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AF8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH8" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI8" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL8" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM8" s="9">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AN8" s="45">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AO8" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP8" s="38" t="s">
+      <c r="BJ8" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AQ8" s="38" t="s">
+      <c r="BK8" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AR8" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS8" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT8" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU8" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV8" s="9">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AW8" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX8" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY8" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ8" s="9">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="BA8" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="BB8" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="BC8" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD8" s="9">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="BE8" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF8" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG8" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH8" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="BI8" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="BJ8" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="BK8" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="BL8" s="38" t="s">
+      <c r="BL8" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="BM8" s="38" t="s">
+      <c r="BM8" s="36" t="s">
         <v>78</v>
       </c>
       <c r="BN8" s="8"/>
@@ -3246,212 +3430,212 @@
       <c r="CR8" s="8"/>
     </row>
     <row r="9" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31">
+      <c r="A9" s="30">
         <v>41785.789375</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>10</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="32">
-        <v>1</v>
-      </c>
-      <c r="J9" s="32">
+      <c r="I9" s="31">
+        <v>1</v>
+      </c>
+      <c r="J9" s="62">
         <v>2</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="36">
         <v>3</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="32">
-        <v>1</v>
-      </c>
-      <c r="N9" s="32">
+      <c r="M9" s="36">
+        <v>1</v>
+      </c>
+      <c r="N9" s="36">
         <v>2</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="38">
+      <c r="P9" s="36">
         <v>0</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="Q9" s="36">
         <v>0</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S9" s="36">
+        <v>0</v>
+      </c>
+      <c r="T9" s="36">
+        <v>0</v>
+      </c>
+      <c r="U9" s="63">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S9" s="38">
+      <c r="V9" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="W9" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA9" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AB9" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC9" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE9" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF9" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG9" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH9" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI9" s="9">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T9" s="38">
-        <v>0</v>
-      </c>
-      <c r="U9" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V9" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="W9" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="X9" s="38" t="s">
+      <c r="AJ9" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="Y9" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="38" t="s">
+      <c r="AK9" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL9" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AA9" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB9" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC9" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD9" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE9" s="9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AF9" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG9" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH9" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI9" s="9">
+      <c r="AM9" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ9" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK9" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL9" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM9" s="9">
+      <c r="AN9" s="43">
         <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="AO9" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP9" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ9" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR9" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS9" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT9" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV9" s="9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AW9" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX9" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY9" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ9" s="9">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN9" s="45">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="AO9" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP9" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ9" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR9" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS9" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT9" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU9" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV9" s="9">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AW9" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AX9" s="38" t="s">
+      <c r="BA9" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AY9" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ9" s="9">
+      <c r="BB9" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC9" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD9" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BA9" s="38" t="s">
+      <c r="BE9" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF9" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="BB9" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC9" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD9" s="9">
+      <c r="BG9" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH9" s="9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BE9" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF9" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="BG9" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH9" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BI9" s="38" t="s">
+      <c r="BI9" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="BJ9" s="38" t="s">
+      <c r="BJ9" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="BK9" s="38" t="s">
+      <c r="BK9" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="BL9" s="38" t="s">
+      <c r="BL9" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="BM9" s="38" t="s">
+      <c r="BM9" s="36" t="s">
         <v>78</v>
       </c>
       <c r="BN9" s="8"/>
@@ -3487,212 +3671,212 @@
       <c r="CR9" s="8"/>
     </row>
     <row r="10" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31">
+      <c r="A10" s="30">
         <v>41784.608043981498</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="31">
         <v>9</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="32">
-        <v>1</v>
-      </c>
-      <c r="J10" s="32">
+      <c r="I10" s="31">
+        <v>1</v>
+      </c>
+      <c r="J10" s="62">
         <v>3</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="36">
         <v>2</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="36">
         <v>2</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="36">
         <v>2</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P10" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="38">
-        <v>1</v>
-      </c>
-      <c r="R10" s="9">
+      <c r="P10" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="36">
+        <v>1</v>
+      </c>
+      <c r="R10" s="15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S10" s="36">
+        <v>3</v>
+      </c>
+      <c r="T10" s="36">
+        <v>1</v>
+      </c>
+      <c r="U10" s="63">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="S10" s="38">
-        <v>3</v>
-      </c>
-      <c r="T10" s="38">
-        <v>1</v>
-      </c>
-      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="W10" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="X10" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z10" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA10" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V10" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="W10" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="X10" s="38" t="s">
+      <c r="AB10" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" s="38" t="s">
+      <c r="AC10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="Z10" s="38" t="s">
+      <c r="AD10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AA10" s="9">
+      <c r="AE10" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC10" s="38" t="s">
+      <c r="AF10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH10" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI10" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="AD10" s="38" t="s">
+      <c r="AK10" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AE10" s="9">
-        <f t="shared" si="5"/>
+      <c r="AM10" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AN10" s="43">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="AO10" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP10" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ10" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR10" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS10" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT10" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV10" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG10" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH10" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI10" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK10" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL10" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM10" s="9">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AN10" s="45">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="AO10" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP10" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ10" s="38" t="s">
+      <c r="AW10" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX10" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ10" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="BA10" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="BB10" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD10" s="9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BE10" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF10" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH10" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BI10" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="BJ10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AR10" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS10" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT10" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU10" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV10" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AW10" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX10" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY10" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ10" s="9">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="BA10" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="BB10" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="BC10" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD10" s="9">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="BE10" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="BF10" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG10" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="BH10" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BI10" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="BJ10" s="38" t="s">
+      <c r="BK10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="BK10" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="BL10" s="38" t="s">
+      <c r="BL10" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="BM10" s="38" t="s">
+      <c r="BM10" s="36" t="s">
         <v>39</v>
       </c>
       <c r="BN10" s="8"/>
@@ -3728,212 +3912,212 @@
       <c r="CR10" s="8"/>
     </row>
     <row r="11" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31">
+      <c r="A11" s="30">
         <v>41784.540532407402</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="31">
         <v>8</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="32">
-        <v>1</v>
-      </c>
-      <c r="J11" s="32">
+      <c r="I11" s="31">
+        <v>1</v>
+      </c>
+      <c r="J11" s="62">
         <v>2</v>
       </c>
-      <c r="K11" s="32">
-        <v>1</v>
-      </c>
-      <c r="L11" s="9">
+      <c r="K11" s="36">
+        <v>1</v>
+      </c>
+      <c r="L11" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="36">
         <v>2</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="36">
         <v>2</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P11" s="38">
+      <c r="P11" s="36">
         <v>3</v>
       </c>
-      <c r="Q11" s="38">
+      <c r="Q11" s="36">
         <v>2</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="36">
+        <v>2</v>
+      </c>
+      <c r="T11" s="36">
+        <v>2</v>
+      </c>
+      <c r="U11" s="63">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="W11" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="X11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z11" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA11" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AB11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD11" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE11" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH11" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI11" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL11" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM11" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AN11" s="43">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AO11" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP11" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ11" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR11" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS11" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT11" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU11" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV11" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S11" s="38">
-        <v>2</v>
-      </c>
-      <c r="T11" s="38">
-        <v>2</v>
-      </c>
-      <c r="U11" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V11" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="W11" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="X11" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y11" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z11" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA11" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB11" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC11" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD11" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE11" s="9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AF11" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG11" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH11" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI11" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK11" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL11" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM11" s="9">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AN11" s="45">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AO11" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP11" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ11" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR11" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS11" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT11" s="38" t="s">
+      <c r="AW11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AU11" s="38" t="s">
+      <c r="AX11" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY11" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AV11" s="9">
+      <c r="AZ11" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AW11" s="38" t="s">
+      <c r="BA11" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="BB11" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC11" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD11" s="9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BE11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AX11" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AY11" s="38" t="s">
+      <c r="BF11" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG11" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AZ11" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BA11" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="BB11" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="BC11" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD11" s="9">
+      <c r="BH11" s="9">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="BE11" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF11" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG11" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="BH11" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="BI11" s="38" t="s">
+      <c r="BI11" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="BJ11" s="38" t="s">
+      <c r="BJ11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="BK11" s="38" t="s">
+      <c r="BK11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="BL11" s="38" t="s">
+      <c r="BL11" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="BM11" s="38" t="s">
+      <c r="BM11" s="36" t="s">
         <v>39</v>
       </c>
       <c r="BN11" s="8"/>
@@ -3969,212 +4153,212 @@
       <c r="CR11" s="8"/>
     </row>
     <row r="12" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31">
+      <c r="A12" s="30">
         <v>41782.688599537003</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <v>7</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="32">
-        <v>1</v>
-      </c>
-      <c r="J12" s="32">
+      <c r="I12" s="31">
+        <v>1</v>
+      </c>
+      <c r="J12" s="62">
         <v>2</v>
       </c>
-      <c r="K12" s="32">
-        <v>1</v>
-      </c>
-      <c r="L12" s="9">
+      <c r="K12" s="36">
+        <v>1</v>
+      </c>
+      <c r="L12" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="36">
         <v>3</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="36">
         <v>3</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P12" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="38">
-        <v>1</v>
-      </c>
-      <c r="R12" s="9">
+      <c r="P12" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="36">
+        <v>1</v>
+      </c>
+      <c r="R12" s="15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S12" s="36">
+        <v>3</v>
+      </c>
+      <c r="T12" s="36">
+        <v>0</v>
+      </c>
+      <c r="U12" s="63">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="S12" s="38">
-        <v>3</v>
-      </c>
-      <c r="T12" s="38">
         <v>0</v>
       </c>
-      <c r="U12" s="9">
+      <c r="V12" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="X12" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z12" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA12" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V12" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="W12" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="X12" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y12" s="38" t="s">
+      <c r="AB12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD12" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE12" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF12" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="Z12" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA12" s="9">
-        <f t="shared" si="4"/>
+      <c r="AG12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH12" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI12" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL12" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM12" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AN12" s="43">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="AO12" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP12" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ12" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR12" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS12" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT12" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU12" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV12" s="9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AW12" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX12" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY12" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ12" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="BA12" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB12" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC12" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD12" s="9">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC12" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD12" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE12" s="9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AF12" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG12" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH12" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI12" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK12" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL12" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM12" s="9">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AN12" s="45">
-        <f t="shared" si="8"/>
-        <v>0.75</v>
-      </c>
-      <c r="AO12" s="38" t="s">
+      <c r="BE12" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF12" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG12" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH12" s="9">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BI12" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AP12" s="38" t="s">
+      <c r="BK12" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AQ12" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR12" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS12" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT12" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU12" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV12" s="9">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AW12" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX12" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY12" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ12" s="9">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="BA12" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB12" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="BC12" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD12" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BE12" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="BF12" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="BG12" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH12" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="BI12" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="BJ12" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="BK12" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="BL12" s="38" t="s">
+      <c r="BL12" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="BM12" s="38" t="s">
+      <c r="BM12" s="36" t="s">
         <v>39</v>
       </c>
       <c r="BN12" s="8"/>
@@ -4210,212 +4394,212 @@
       <c r="CR12" s="8"/>
     </row>
     <row r="13" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
+      <c r="A13" s="30">
         <v>41781.732337963003</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="31">
         <v>6</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="32">
-        <v>1</v>
-      </c>
-      <c r="J13" s="32">
+      <c r="I13" s="31">
+        <v>1</v>
+      </c>
+      <c r="J13" s="62">
         <v>2</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="36">
         <v>2</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="36">
         <v>3</v>
       </c>
-      <c r="N13" s="32">
+      <c r="N13" s="36">
         <v>2</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P13" s="38">
+      <c r="P13" s="36">
         <v>3</v>
       </c>
-      <c r="Q13" s="38">
+      <c r="Q13" s="36">
         <v>3</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="36">
+        <v>3</v>
+      </c>
+      <c r="T13" s="36">
+        <v>2</v>
+      </c>
+      <c r="U13" s="63">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="S13" s="38">
-        <v>3</v>
-      </c>
-      <c r="T13" s="38">
-        <v>2</v>
-      </c>
-      <c r="U13" s="9">
+        <v>0</v>
+      </c>
+      <c r="V13" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="W13" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y13" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z13" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA13" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V13" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="W13" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="X13" s="38" t="s">
+      <c r="AB13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="Y13" s="38" t="s">
+      <c r="AC13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD13" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE13" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG13" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH13" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI13" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="Z13" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA13" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="38" t="s">
+      <c r="AK13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AC13" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD13" s="38" t="s">
+      <c r="AL13" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AE13" s="9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AF13" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG13" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH13" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI13" s="9">
+      <c r="AM13" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ13" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK13" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL13" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM13" s="9">
+      <c r="AN13" s="43">
         <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="AO13" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP13" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ13" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR13" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS13" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT13" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU13" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV13" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="45">
-        <f t="shared" si="8"/>
-        <v>0.25</v>
-      </c>
-      <c r="AO13" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP13" s="38" t="s">
+      <c r="AW13" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX13" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY13" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ13" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="BA13" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB13" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC13" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD13" s="9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BE13" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF13" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG13" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH13" s="9">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BI13" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AQ13" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR13" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS13" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT13" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU13" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV13" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AW13" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AX13" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AY13" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ13" s="9">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="BA13" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB13" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC13" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD13" s="9">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="BE13" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF13" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="BG13" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="BH13" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="BI13" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="BJ13" s="38" t="s">
+      <c r="BJ13" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="BK13" s="38" t="s">
+      <c r="BK13" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="BL13" s="38" t="s">
+      <c r="BL13" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="BM13" s="38" t="s">
+      <c r="BM13" s="36" t="s">
         <v>39</v>
       </c>
       <c r="BN13" s="8"/>
@@ -4451,212 +4635,212 @@
       <c r="CR13" s="8"/>
     </row>
     <row r="14" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <v>41781.6901967593</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="31">
         <v>5</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="32">
-        <v>1</v>
-      </c>
-      <c r="J14" s="32">
+      <c r="I14" s="31">
+        <v>1</v>
+      </c>
+      <c r="J14" s="62">
         <v>2</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="36">
         <v>2</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="36">
         <v>2</v>
       </c>
-      <c r="N14" s="32">
-        <v>1</v>
-      </c>
-      <c r="O14" s="9">
+      <c r="N14" s="36">
+        <v>1</v>
+      </c>
+      <c r="O14" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P14" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="38">
-        <v>1</v>
-      </c>
-      <c r="R14" s="9">
+      <c r="P14" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="36">
+        <v>1</v>
+      </c>
+      <c r="R14" s="15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="36">
+        <v>2</v>
+      </c>
+      <c r="T14" s="36">
+        <v>2</v>
+      </c>
+      <c r="U14" s="63">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S14" s="38">
-        <v>2</v>
-      </c>
-      <c r="T14" s="38">
-        <v>2</v>
-      </c>
-      <c r="U14" s="9">
+      <c r="V14" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="W14" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="X14" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z14" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA14" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V14" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="W14" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y14" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="Z14" s="38" t="s">
+      <c r="AC14" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD14" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AA14" s="9">
+      <c r="AE14" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="38" t="s">
+      <c r="AF14" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG14" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH14" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI14" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK14" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="AC14" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD14" s="38" t="s">
+      <c r="AL14" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AE14" s="9">
-        <f t="shared" si="5"/>
+      <c r="AM14" s="9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG14" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH14" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI14" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK14" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL14" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM14" s="9">
+      <c r="AN14" s="43">
         <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="AO14" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP14" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ14" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR14" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU14" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV14" s="9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AW14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX14" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY14" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ14" s="9">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="45">
-        <f t="shared" si="8"/>
-        <v>0.25</v>
-      </c>
-      <c r="AO14" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP14" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ14" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR14" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS14" s="38" t="s">
+      <c r="BA14" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AT14" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU14" s="38" t="s">
+      <c r="BB14" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC14" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="AV14" s="9">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AW14" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX14" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY14" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ14" s="9">
+      <c r="BD14" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BA14" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB14" s="38" t="s">
+      <c r="BE14" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="BC14" s="38" t="s">
+      <c r="BF14" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG14" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="BD14" s="9">
+      <c r="BH14" s="9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BE14" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF14" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="BG14" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH14" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BI14" s="38" t="s">
+      <c r="BI14" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="BJ14" s="38" t="s">
+      <c r="BJ14" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="BK14" s="38" t="s">
+      <c r="BK14" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="BL14" s="38" t="s">
+      <c r="BL14" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="BM14" s="38" t="s">
+      <c r="BM14" s="36" t="s">
         <v>39</v>
       </c>
       <c r="BN14" s="8"/>
@@ -4692,210 +4876,210 @@
       <c r="CR14" s="8"/>
     </row>
     <row r="15" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
+      <c r="A15" s="30">
         <v>41781.5777662037</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="31">
         <v>4</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="32">
-        <v>1</v>
-      </c>
-      <c r="J15" s="32">
-        <v>1</v>
-      </c>
-      <c r="K15" s="32">
+      <c r="I15" s="31">
+        <v>1</v>
+      </c>
+      <c r="J15" s="62">
+        <v>1</v>
+      </c>
+      <c r="K15" s="36">
         <v>3</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="32">
-        <v>1</v>
-      </c>
-      <c r="N15" s="32">
+      <c r="M15" s="36">
+        <v>1</v>
+      </c>
+      <c r="N15" s="36">
         <v>3</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P15" s="38">
+      <c r="P15" s="36">
         <v>2</v>
       </c>
-      <c r="Q15" s="38">
-        <v>1</v>
-      </c>
-      <c r="R15" s="9">
+      <c r="Q15" s="36">
+        <v>1</v>
+      </c>
+      <c r="R15" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="36">
+        <v>1</v>
+      </c>
+      <c r="T15" s="36">
+        <v>2</v>
+      </c>
+      <c r="U15" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S15" s="38">
-        <v>1</v>
-      </c>
-      <c r="T15" s="38">
-        <v>2</v>
-      </c>
-      <c r="U15" s="9">
+      <c r="V15" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="W15" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="X15" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y15" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z15" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA15" s="9">
         <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AB15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC15" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD15" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE15" s="9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V15" s="38" t="s">
+      <c r="AF15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH15" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI15" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK15" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL15" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM15" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="43">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="AO15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="W15" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="X15" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y15" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z15" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA15" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB15" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC15" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD15" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE15" s="9">
-        <f t="shared" si="5"/>
+      <c r="AP15" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS15" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT15" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU15" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV15" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG15" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH15" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI15" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK15" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL15" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM15" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN15" s="45">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="AO15" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP15" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ15" s="38"/>
-      <c r="AR15" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS15" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT15" s="38" t="s">
+      <c r="AW15" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AU15" s="38" t="s">
+      <c r="AX15" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AV15" s="9">
+      <c r="AZ15" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AW15" s="38" t="s">
+      <c r="BA15" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AX15" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AY15" s="38" t="s">
+      <c r="BB15" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AZ15" s="9">
+      <c r="BD15" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BA15" s="38" t="s">
+      <c r="BE15" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="BB15" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC15" s="38" t="s">
+      <c r="BF15" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="BD15" s="9">
+      <c r="BH15" s="9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BE15" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="BF15" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="BG15" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="BH15" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BI15" s="38" t="s">
+      <c r="BI15" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="BJ15" s="38" t="s">
+      <c r="BJ15" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="BK15" s="38" t="s">
+      <c r="BK15" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="BL15" s="38" t="s">
+      <c r="BL15" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="BM15" s="38" t="s">
+      <c r="BM15" s="36" t="s">
         <v>39</v>
       </c>
       <c r="BN15" s="8"/>
@@ -4931,212 +5115,212 @@
       <c r="CR15" s="8"/>
     </row>
     <row r="16" spans="1:96" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+      <c r="A16" s="30">
         <v>41780.544675925899</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="31">
         <v>3</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="32">
-        <v>1</v>
-      </c>
-      <c r="J16" s="32">
+      <c r="I16" s="31">
+        <v>1</v>
+      </c>
+      <c r="J16" s="62">
         <v>2</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="36">
         <v>3</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="32">
-        <v>1</v>
-      </c>
-      <c r="N16" s="32">
-        <v>1</v>
-      </c>
-      <c r="O16" s="9">
+      <c r="M16" s="36">
+        <v>1</v>
+      </c>
+      <c r="N16" s="36">
+        <v>1</v>
+      </c>
+      <c r="O16" s="15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P16" s="38">
+      <c r="P16" s="36">
         <v>2</v>
       </c>
-      <c r="Q16" s="38">
-        <v>1</v>
-      </c>
-      <c r="R16" s="9">
+      <c r="Q16" s="36">
+        <v>1</v>
+      </c>
+      <c r="R16" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="36">
+        <v>2</v>
+      </c>
+      <c r="T16" s="36">
+        <v>3</v>
+      </c>
+      <c r="U16" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S16" s="38">
-        <v>2</v>
-      </c>
-      <c r="T16" s="38">
-        <v>3</v>
-      </c>
-      <c r="U16" s="9">
+      <c r="V16" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X16" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y16" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z16" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA16" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V16" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="W16" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="X16" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y16" s="38" t="s">
+      <c r="AB16" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="Z16" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA16" s="9">
+      <c r="AD16" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE16" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC16" s="38" t="s">
+      <c r="AF16" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG16" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH16" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI16" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="AD16" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE16" s="9">
-        <f t="shared" si="5"/>
+      <c r="AK16" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL16" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM16" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AN16" s="43">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="AO16" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP16" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ16" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR16" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS16" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT16" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU16" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV16" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG16" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH16" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI16" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK16" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL16" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM16" s="9">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AN16" s="45">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="AO16" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP16" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ16" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR16" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS16" s="38" t="s">
+      <c r="AW16" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX16" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="AT16" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU16" s="38" t="s">
+      <c r="AY16" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AV16" s="9">
+      <c r="AZ16" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AW16" s="38" t="s">
+      <c r="BA16" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AX16" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AY16" s="38" t="s">
+      <c r="BB16" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC16" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AZ16" s="9">
+      <c r="BD16" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BA16" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB16" s="38" t="s">
+      <c r="BE16" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="BC16" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD16" s="9">
+      <c r="BF16" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG16" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH16" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BE16" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF16" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG16" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH16" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="BI16" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI16" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="BJ16" s="38" t="s">
+      <c r="BJ16" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="BK16" s="38" t="s">
+      <c r="BK16" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="BL16" s="38" t="s">
+      <c r="BL16" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="BM16" s="38" t="s">
+      <c r="BM16" s="36" t="s">
         <v>39</v>
       </c>
       <c r="BN16" s="8"/>
@@ -5172,212 +5356,212 @@
       <c r="CR16" s="8"/>
     </row>
     <row r="17" spans="1:96" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <v>41779.515509259298</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="31">
         <v>2</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="32">
-        <v>1</v>
-      </c>
-      <c r="J17" s="32">
+      <c r="I17" s="31">
+        <v>1</v>
+      </c>
+      <c r="J17" s="62">
         <v>2</v>
       </c>
-      <c r="K17" s="32">
-        <v>1</v>
-      </c>
-      <c r="L17" s="9">
+      <c r="K17" s="36">
+        <v>1</v>
+      </c>
+      <c r="L17" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="36">
         <v>3</v>
       </c>
-      <c r="N17" s="32">
+      <c r="N17" s="36">
         <v>2</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P17" s="38">
+      <c r="P17" s="36">
         <v>0</v>
       </c>
-      <c r="Q17" s="38">
-        <v>1</v>
-      </c>
-      <c r="R17" s="9">
+      <c r="Q17" s="36">
+        <v>1</v>
+      </c>
+      <c r="R17" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="36">
+        <v>3</v>
+      </c>
+      <c r="T17" s="36">
+        <v>3</v>
+      </c>
+      <c r="U17" s="63">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V17" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="W17" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="X17" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y17" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z17" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA17" s="9">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S17" s="38">
-        <v>3</v>
-      </c>
-      <c r="T17" s="38">
-        <v>3</v>
-      </c>
-      <c r="U17" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V17" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="W17" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="X17" s="38" t="s">
+      <c r="AB17" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC17" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD17" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE17" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF17" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG17" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="Y17" s="38" t="s">
+      <c r="AH17" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI17" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="Z17" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA17" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC17" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD17" s="38" t="s">
+      <c r="AK17" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL17" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="AE17" s="9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AF17" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG17" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH17" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI17" s="9">
+      <c r="AM17" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ17" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK17" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL17" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM17" s="9">
+      <c r="AN17" s="43">
         <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="AO17" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP17" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ17" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR17" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS17" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT17" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU17" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV17" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="45">
-        <f t="shared" si="8"/>
-        <v>0.25</v>
-      </c>
-      <c r="AO17" s="38" t="s">
+      <c r="AW17" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX17" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY17" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ17" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="BA17" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB17" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC17" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD17" s="9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BE17" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF17" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG17" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH17" s="9">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BI17" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AP17" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ17" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS17" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT17" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU17" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV17" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AW17" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX17" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY17" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ17" s="9">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="BA17" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB17" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="BC17" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD17" s="9">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="BE17" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF17" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="BG17" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="BH17" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="BI17" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="BJ17" s="38" t="s">
+      <c r="BJ17" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="BK17" s="38" t="s">
+      <c r="BK17" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="BL17" s="38" t="s">
+      <c r="BL17" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="BM17" s="38" t="s">
+      <c r="BM17" s="36" t="s">
         <v>39</v>
       </c>
       <c r="BN17" s="8"/>
@@ -5413,361 +5597,361 @@
       <c r="CR17" s="8"/>
     </row>
     <row r="18" spans="1:96" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="32">
         <v>41778.681678240697</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="34">
-        <v>1</v>
-      </c>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="33">
+        <v>1</v>
+      </c>
+      <c r="D18" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="34">
-        <v>1</v>
-      </c>
-      <c r="J18" s="34">
+      <c r="I18" s="57">
+        <v>1</v>
+      </c>
+      <c r="J18" s="64">
         <v>2</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="65">
         <v>3</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="34">
+      <c r="M18" s="65">
         <v>2</v>
       </c>
-      <c r="N18" s="34">
+      <c r="N18" s="65">
         <v>2</v>
       </c>
-      <c r="O18" s="35">
+      <c r="O18" s="67">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P18" s="38">
+      <c r="P18" s="68">
         <v>3</v>
       </c>
-      <c r="Q18" s="38">
-        <v>1</v>
-      </c>
-      <c r="R18" s="36">
+      <c r="Q18" s="68">
+        <v>1</v>
+      </c>
+      <c r="R18" s="69">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="68">
+        <v>1</v>
+      </c>
+      <c r="T18" s="68">
+        <v>1</v>
+      </c>
+      <c r="U18" s="70">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V18" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="W18" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="X18" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y18" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z18" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA18" s="34">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S18" s="38">
-        <v>1</v>
-      </c>
-      <c r="T18" s="38">
-        <v>1</v>
-      </c>
-      <c r="U18" s="36">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V18" s="38" t="s">
+      <c r="AB18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD18" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE18" s="34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF18" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG18" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH18" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI18" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK18" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL18" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM18" s="34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AN18" s="43">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="AO18" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP18" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ18" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="W18" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="X18" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y18" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z18" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA18" s="36">
-        <f t="shared" si="4"/>
+      <c r="AR18" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS18" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT18" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU18" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV18" s="34">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AW18" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX18" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY18" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ18" s="34">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB18" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC18" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD18" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE18" s="36">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AF18" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG18" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH18" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI18" s="36">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK18" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL18" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM18" s="36">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AN18" s="45">
-        <f t="shared" si="8"/>
-        <v>0.75</v>
-      </c>
-      <c r="AO18" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP18" s="38" t="s">
+      <c r="BA18" s="36"/>
+      <c r="BB18" s="36"/>
+      <c r="BC18" s="36"/>
+      <c r="BD18" s="34"/>
+      <c r="BE18" s="36"/>
+      <c r="BF18" s="36"/>
+      <c r="BG18" s="36"/>
+      <c r="BH18" s="34"/>
+      <c r="BI18" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AQ18" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR18" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS18" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT18" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU18" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV18" s="36">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AW18" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AX18" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY18" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ18" s="36">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BA18" s="38"/>
-      <c r="BB18" s="38"/>
-      <c r="BC18" s="38"/>
-      <c r="BD18" s="36"/>
-      <c r="BE18" s="38"/>
-      <c r="BF18" s="38"/>
-      <c r="BG18" s="38"/>
-      <c r="BH18" s="36"/>
-      <c r="BI18" s="38" t="s">
+      <c r="BJ18" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="BJ18" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="BK18" s="38" t="s">
+      <c r="BK18" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="BL18" s="38" t="s">
+      <c r="BL18" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="BM18" s="38" t="s">
+      <c r="BM18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="BN18" s="37"/>
-      <c r="BO18" s="27"/>
-      <c r="BP18" s="27"/>
-      <c r="BQ18" s="27"/>
-      <c r="BR18" s="27"/>
-      <c r="BS18" s="27"/>
-      <c r="BT18" s="27"/>
-      <c r="BU18" s="27"/>
-      <c r="BV18" s="27"/>
-      <c r="BW18" s="27"/>
-      <c r="BX18" s="27"/>
-      <c r="BY18" s="27"/>
-      <c r="BZ18" s="27"/>
-      <c r="CA18" s="27"/>
-      <c r="CB18" s="27"/>
-      <c r="CC18" s="27"/>
-      <c r="CD18" s="27"/>
-      <c r="CE18" s="27"/>
-      <c r="CF18" s="27"/>
-      <c r="CG18" s="27"/>
-      <c r="CH18" s="27"/>
-      <c r="CI18" s="27"/>
-      <c r="CJ18" s="27"/>
-      <c r="CK18" s="27"/>
-      <c r="CL18" s="27"/>
-      <c r="CM18" s="27"/>
-      <c r="CN18" s="27"/>
-      <c r="CO18" s="27"/>
-      <c r="CP18" s="27"/>
-      <c r="CQ18" s="27"/>
-      <c r="CR18" s="27"/>
+      <c r="BN18" s="35"/>
+      <c r="BO18" s="26"/>
+      <c r="BP18" s="26"/>
+      <c r="BQ18" s="26"/>
+      <c r="BR18" s="26"/>
+      <c r="BS18" s="26"/>
+      <c r="BT18" s="26"/>
+      <c r="BU18" s="26"/>
+      <c r="BV18" s="26"/>
+      <c r="BW18" s="26"/>
+      <c r="BX18" s="26"/>
+      <c r="BY18" s="26"/>
+      <c r="BZ18" s="26"/>
+      <c r="CA18" s="26"/>
+      <c r="CB18" s="26"/>
+      <c r="CC18" s="26"/>
+      <c r="CD18" s="26"/>
+      <c r="CE18" s="26"/>
+      <c r="CF18" s="26"/>
+      <c r="CG18" s="26"/>
+      <c r="CH18" s="26"/>
+      <c r="CI18" s="26"/>
+      <c r="CJ18" s="26"/>
+      <c r="CK18" s="26"/>
+      <c r="CL18" s="26"/>
+      <c r="CM18" s="26"/>
+      <c r="CN18" s="26"/>
+      <c r="CO18" s="26"/>
+      <c r="CP18" s="26"/>
+      <c r="CQ18" s="26"/>
+      <c r="CR18" s="26"/>
     </row>
-    <row r="19" spans="1:96" s="40" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42">
+    <row r="19" spans="1:96" s="38" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40">
         <f>SUM(L2:L18)</f>
         <v>8</v>
       </c>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42">
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40">
         <f>SUM(O2:O18)</f>
         <v>7</v>
       </c>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42">
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40">
         <f>SUM(R2:R18)</f>
         <v>11</v>
       </c>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42">
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40">
         <f>SUM(U2:U18)</f>
         <v>9</v>
       </c>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42">
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40">
         <f>SUM(AA2:AA18)</f>
         <v>6</v>
       </c>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="42">
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40">
         <f>SUM(AE2:AE18)</f>
         <v>9</v>
       </c>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="42"/>
-      <c r="AH19" s="42"/>
-      <c r="AI19" s="42">
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="40">
         <f>SUM(AI2:AI18)</f>
         <v>11</v>
       </c>
-      <c r="AJ19" s="42"/>
-      <c r="AK19" s="42"/>
-      <c r="AL19" s="42"/>
-      <c r="AM19" s="42">
+      <c r="AJ19" s="40"/>
+      <c r="AK19" s="40"/>
+      <c r="AL19" s="40"/>
+      <c r="AM19" s="40">
         <f>SUM(AM2:AM18)</f>
         <v>11</v>
       </c>
-      <c r="AN19" s="48"/>
-      <c r="AO19" s="42"/>
-      <c r="AP19" s="42"/>
-      <c r="AQ19" s="42"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
-      <c r="AT19" s="42"/>
-      <c r="AU19" s="42"/>
-      <c r="AV19" s="42">
+      <c r="AN19" s="46"/>
+      <c r="AO19" s="40"/>
+      <c r="AP19" s="40"/>
+      <c r="AQ19" s="40"/>
+      <c r="AR19" s="40"/>
+      <c r="AS19" s="40"/>
+      <c r="AT19" s="40"/>
+      <c r="AU19" s="40"/>
+      <c r="AV19" s="40">
         <f>SUM(AV2:AV18)</f>
         <v>10</v>
       </c>
-      <c r="AW19" s="42"/>
-      <c r="AX19" s="42"/>
-      <c r="AY19" s="42"/>
-      <c r="AZ19" s="42">
+      <c r="AW19" s="40"/>
+      <c r="AX19" s="40"/>
+      <c r="AY19" s="40"/>
+      <c r="AZ19" s="40">
         <f>SUM(AZ2:AZ18)</f>
         <v>8</v>
       </c>
-      <c r="BA19" s="42"/>
-      <c r="BB19" s="42"/>
-      <c r="BC19" s="42"/>
-      <c r="BD19" s="42">
+      <c r="BA19" s="40"/>
+      <c r="BB19" s="40"/>
+      <c r="BC19" s="40"/>
+      <c r="BD19" s="40">
         <f>SUM(BD2:BD18)</f>
         <v>9</v>
       </c>
-      <c r="BE19" s="42"/>
-      <c r="BF19" s="42"/>
-      <c r="BG19" s="42"/>
-      <c r="BH19" s="42">
+      <c r="BE19" s="40"/>
+      <c r="BF19" s="40"/>
+      <c r="BG19" s="40"/>
+      <c r="BH19" s="40">
         <f>SUM(BH2:BH18)</f>
         <v>9</v>
       </c>
-      <c r="BI19" s="42"/>
-      <c r="BJ19" s="42"/>
-      <c r="BK19" s="42"/>
-      <c r="BL19" s="42"/>
-      <c r="BM19" s="43"/>
-      <c r="BN19" s="39"/>
-      <c r="BO19" s="39"/>
-      <c r="BP19" s="39"/>
-      <c r="BQ19" s="39"/>
-      <c r="BR19" s="39"/>
-      <c r="BS19" s="39"/>
-      <c r="BT19" s="39"/>
-      <c r="BU19" s="39"/>
-      <c r="BV19" s="39"/>
-      <c r="BW19" s="39"/>
-      <c r="BX19" s="39"/>
-      <c r="BY19" s="39"/>
-      <c r="BZ19" s="39"/>
-      <c r="CA19" s="39"/>
-      <c r="CB19" s="39"/>
-      <c r="CC19" s="39"/>
-      <c r="CD19" s="39"/>
-      <c r="CE19" s="39"/>
-      <c r="CF19" s="39"/>
-      <c r="CG19" s="39"/>
-      <c r="CH19" s="39"/>
-      <c r="CI19" s="39"/>
-      <c r="CJ19" s="39"/>
-      <c r="CK19" s="39"/>
-      <c r="CL19" s="39"/>
-      <c r="CM19" s="39"/>
-      <c r="CN19" s="39"/>
-      <c r="CO19" s="39"/>
-      <c r="CP19" s="39"/>
-      <c r="CQ19" s="39"/>
-      <c r="CR19" s="39"/>
+      <c r="BI19" s="40"/>
+      <c r="BJ19" s="40"/>
+      <c r="BK19" s="40"/>
+      <c r="BL19" s="40"/>
+      <c r="BM19" s="41"/>
+      <c r="BN19" s="37"/>
+      <c r="BO19" s="37"/>
+      <c r="BP19" s="37"/>
+      <c r="BQ19" s="37"/>
+      <c r="BR19" s="37"/>
+      <c r="BS19" s="37"/>
+      <c r="BT19" s="37"/>
+      <c r="BU19" s="37"/>
+      <c r="BV19" s="37"/>
+      <c r="BW19" s="37"/>
+      <c r="BX19" s="37"/>
+      <c r="BY19" s="37"/>
+      <c r="BZ19" s="37"/>
+      <c r="CA19" s="37"/>
+      <c r="CB19" s="37"/>
+      <c r="CC19" s="37"/>
+      <c r="CD19" s="37"/>
+      <c r="CE19" s="37"/>
+      <c r="CF19" s="37"/>
+      <c r="CG19" s="37"/>
+      <c r="CH19" s="37"/>
+      <c r="CI19" s="37"/>
+      <c r="CJ19" s="37"/>
+      <c r="CK19" s="37"/>
+      <c r="CL19" s="37"/>
+      <c r="CM19" s="37"/>
+      <c r="CN19" s="37"/>
+      <c r="CO19" s="37"/>
+      <c r="CP19" s="37"/>
+      <c r="CQ19" s="37"/>
+      <c r="CR19" s="37"/>
     </row>
     <row r="20" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
@@ -5809,7 +5993,7 @@
       <c r="AK20" s="6"/>
       <c r="AL20" s="6"/>
       <c r="AM20" s="9"/>
-      <c r="AN20" s="46"/>
+      <c r="AN20" s="44"/>
       <c r="AO20" s="6"/>
       <c r="AP20" s="6"/>
       <c r="AQ20" s="6"/>
@@ -5943,7 +6127,7 @@
         <f>SUMIF(AK2:AK18,"Circle",AM2:AM18)</f>
         <v>5</v>
       </c>
-      <c r="AN21" s="47"/>
+      <c r="AN21" s="45"/>
       <c r="AO21" s="6"/>
       <c r="AP21" s="6"/>
       <c r="AQ21" s="6"/>
@@ -6034,19 +6218,19 @@
       <c r="CR21" s="6"/>
     </row>
     <row r="22" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
       <c r="J22" s="6"/>
       <c r="K22" s="13" t="s">
         <v>105</v>
@@ -6119,7 +6303,7 @@
         <f>SUMIF(AK2:AK18,"Rectangle",AM2:AM18)</f>
         <v>2</v>
       </c>
-      <c r="AN22" s="47"/>
+      <c r="AN22" s="45"/>
       <c r="AO22" s="6"/>
       <c r="AP22" s="6"/>
       <c r="AQ22" s="6"/>
@@ -6223,11 +6407,11 @@
       <c r="G23" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="54">
+      <c r="H23" s="55">
         <f>SUM(L23,O23,R23,U23,AA26,AE26,AI26,AM26,AV26,AZ26,BD26,BH26)/SUM(L19,O19,U19,R19,AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
         <v>0.46296296296296297</v>
       </c>
-      <c r="I23" s="55"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="6"/>
       <c r="K23" s="13" t="s">
         <v>106</v>
@@ -6300,7 +6484,7 @@
         <f>SUMIF(AK2:AK18,"Triangle",AM2:AM18)</f>
         <v>4</v>
       </c>
-      <c r="AN23" s="47"/>
+      <c r="AN23" s="45"/>
       <c r="AO23" s="6"/>
       <c r="AP23" s="6"/>
       <c r="AQ23" s="6"/>
@@ -6402,17 +6586,17 @@
         <f>O19</f>
         <v>7</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="55">
         <f>SUM(L22,O22,R22,U22,AA25,AE25,AI25,AM25,AV25,AZ25,BD25,BH25)/SUM(L19,O19,R19,U19,AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
         <v>0.52777777777777779</v>
       </c>
-      <c r="I24" s="55"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="9"/>
@@ -6443,7 +6627,7 @@
       <c r="AK24" s="6"/>
       <c r="AL24" s="6"/>
       <c r="AM24" s="9"/>
-      <c r="AN24" s="46"/>
+      <c r="AN24" s="44"/>
       <c r="AO24" s="6"/>
       <c r="AP24" s="6"/>
       <c r="AQ24" s="6"/>
@@ -6563,7 +6747,7 @@
         <f>SUMIF(B2:B18,"Left Hand",AM2:AM18)</f>
         <v>5</v>
       </c>
-      <c r="AN25" s="46"/>
+      <c r="AN25" s="44"/>
       <c r="AO25" s="6"/>
       <c r="AP25" s="6"/>
       <c r="AQ25" s="6"/>
@@ -6687,7 +6871,7 @@
         <f>SUMIF(B2:B18,"Right Hand",AM2:AM18)</f>
         <v>6</v>
       </c>
-      <c r="AN26" s="46"/>
+      <c r="AN26" s="44"/>
       <c r="AO26" s="6"/>
       <c r="AP26" s="6"/>
       <c r="AQ26" s="6"/>
@@ -6797,7 +6981,7 @@
       <c r="AK27" s="6"/>
       <c r="AL27" s="6"/>
       <c r="AM27" s="9"/>
-      <c r="AN27" s="46"/>
+      <c r="AN27" s="44"/>
       <c r="AO27" s="6"/>
       <c r="AP27" s="6"/>
       <c r="AQ27" s="6"/>
@@ -6856,8 +7040,10 @@
       <c r="CR27" s="6"/>
     </row>
     <row r="28" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="72"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -6895,7 +7081,7 @@
       <c r="AK28" s="6"/>
       <c r="AL28" s="6"/>
       <c r="AM28" s="9"/>
-      <c r="AN28" s="46"/>
+      <c r="AN28" s="44"/>
       <c r="AO28" s="6"/>
       <c r="AP28" s="6"/>
       <c r="AQ28" s="6"/>
@@ -6954,18 +7140,23 @@
       <c r="CR28" s="6"/>
     </row>
     <row r="29" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="6">
+        <f>AVERAGE(L2:L18,O2:O18,R2:R18,U2:U18)</f>
+        <v>0.51470588235294112</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="50" t="s">
+      <c r="G29" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
       <c r="K29" s="6"/>
       <c r="L29" s="9"/>
       <c r="M29" s="6"/>
@@ -7015,7 +7206,7 @@
         <f>SUMIF(AL2:AL18,"Less than 2 minutes",AM2:AM18)</f>
         <v>5</v>
       </c>
-      <c r="AN29" s="47"/>
+      <c r="AN29" s="45"/>
       <c r="AO29" s="6"/>
       <c r="AP29" s="6"/>
       <c r="AQ29" s="6"/>
@@ -7159,7 +7350,7 @@
         <f>SUMIF(AL2:AL18,"Between 2 and 4 minutes",AM2:AM18)</f>
         <v>6</v>
       </c>
-      <c r="AN30" s="47"/>
+      <c r="AN30" s="45"/>
       <c r="AO30" s="6"/>
       <c r="AP30" s="6"/>
       <c r="AQ30" s="6"/>
@@ -7288,7 +7479,7 @@
       <c r="AK31" s="6"/>
       <c r="AL31" s="6"/>
       <c r="AM31" s="9"/>
-      <c r="AN31" s="46"/>
+      <c r="AN31" s="44"/>
       <c r="AO31" s="6"/>
       <c r="AP31" s="6"/>
       <c r="AQ31" s="6"/>
@@ -7386,7 +7577,7 @@
       <c r="AK32" s="6"/>
       <c r="AL32" s="6"/>
       <c r="AM32" s="9"/>
-      <c r="AN32" s="46"/>
+      <c r="AN32" s="44"/>
       <c r="AO32" s="6"/>
       <c r="AP32" s="6"/>
       <c r="AQ32" s="6"/>
@@ -7484,7 +7675,7 @@
       <c r="AK33" s="6"/>
       <c r="AL33" s="6"/>
       <c r="AM33" s="9"/>
-      <c r="AN33" s="46"/>
+      <c r="AN33" s="44"/>
       <c r="AO33" s="6"/>
       <c r="AP33" s="6"/>
       <c r="AQ33" s="6"/>
@@ -7549,12 +7740,10 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="51" t="s">
-        <v>117</v>
-      </c>
+      <c r="G34" s="51"/>
       <c r="H34" s="51"/>
       <c r="I34" s="51"/>
-      <c r="J34" s="6"/>
+      <c r="J34" s="51"/>
       <c r="K34" s="6"/>
       <c r="L34" s="9"/>
       <c r="M34" s="6"/>
@@ -7584,7 +7773,7 @@
       <c r="AK34" s="6"/>
       <c r="AL34" s="6"/>
       <c r="AM34" s="9"/>
-      <c r="AN34" s="46"/>
+      <c r="AN34" s="44"/>
       <c r="AO34" s="6"/>
       <c r="AP34" s="6"/>
       <c r="AQ34" s="6"/>
@@ -7649,15 +7838,10 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H35" s="54">
-        <f>SUM(AA29,AE29,AI29,AM29,AV29,AZ29,BD29,BH29,)/SUM(AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
-        <v>0.54794520547945202</v>
-      </c>
-      <c r="I35" s="55"/>
-      <c r="J35" s="6"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="11"/>
       <c r="K35" s="6"/>
       <c r="L35" s="9"/>
       <c r="M35" s="6"/>
@@ -7687,7 +7871,7 @@
       <c r="AK35" s="6"/>
       <c r="AL35" s="6"/>
       <c r="AM35" s="9"/>
-      <c r="AN35" s="46"/>
+      <c r="AN35" s="44"/>
       <c r="AO35" s="6"/>
       <c r="AP35" s="6"/>
       <c r="AQ35" s="6"/>
@@ -7752,15 +7936,9 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="54">
-        <f>SUM(AA30,AE30,AI30,AM30,AV30,AZ30,BD30,BH30,)/SUM(AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
-        <v>0.43835616438356162</v>
-      </c>
-      <c r="I36" s="55"/>
-      <c r="J36" s="6"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="11"/>
+      <c r="J36" s="11"/>
       <c r="K36" s="6"/>
       <c r="L36" s="9"/>
       <c r="M36" s="6"/>
@@ -7790,7 +7968,7 @@
       <c r="AK36" s="6"/>
       <c r="AL36" s="6"/>
       <c r="AM36" s="9"/>
-      <c r="AN36" s="46"/>
+      <c r="AN36" s="44"/>
       <c r="AO36" s="6"/>
       <c r="AP36" s="6"/>
       <c r="AQ36" s="6"/>
@@ -7855,9 +8033,6 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="9"/>
@@ -7888,7 +8063,7 @@
       <c r="AK37" s="6"/>
       <c r="AL37" s="6"/>
       <c r="AM37" s="9"/>
-      <c r="AN37" s="46"/>
+      <c r="AN37" s="44"/>
       <c r="AO37" s="6"/>
       <c r="AP37" s="6"/>
       <c r="AQ37" s="6"/>
@@ -7953,11 +8128,6 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
       <c r="J38" s="6"/>
       <c r="K38" s="13" t="s">
         <v>20</v>
@@ -8028,7 +8198,7 @@
         <f>AVERAGE(SUMIF(D2:D18,"Female",AM2:AM18))</f>
         <v>5</v>
       </c>
-      <c r="AN38" s="46"/>
+      <c r="AN38" s="44"/>
       <c r="AO38" s="6"/>
       <c r="AP38" s="6"/>
       <c r="AQ38" s="6"/>
@@ -8113,14 +8283,6 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="54">
-        <f>SUM(L38,O38,R38,U38,AA38,AE38,AI38,AM38,AV38,AZ38,BD38,BH38,)/SUM(L19,O19,R19,U19,AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
-        <v>0.39814814814814814</v>
-      </c>
-      <c r="I39" s="55"/>
       <c r="J39" s="6"/>
       <c r="K39" s="13" t="s">
         <v>41</v>
@@ -8191,7 +8353,7 @@
         <f>SUMIF(D2:D18,"Male",AM2:AM18)</f>
         <v>6</v>
       </c>
-      <c r="AN39" s="46"/>
+      <c r="AN39" s="44"/>
       <c r="AO39" s="6"/>
       <c r="AP39" s="6"/>
       <c r="AQ39" s="6"/>
@@ -8276,14 +8438,6 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="54">
-        <f>SUM(L39,O39,R39,U39,AA39,AE39,AI39,AM39,AV39,AZ39,BD39,BH39)/SUM(L19,O19,R19,U19,AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
-        <v>0.61111111111111116</v>
-      </c>
-      <c r="I40" s="55"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="9"/>
@@ -8314,7 +8468,7 @@
       <c r="AK40" s="6"/>
       <c r="AL40" s="6"/>
       <c r="AM40" s="9"/>
-      <c r="AN40" s="46"/>
+      <c r="AN40" s="44"/>
       <c r="AO40" s="6"/>
       <c r="AP40" s="6"/>
       <c r="AQ40" s="6"/>
@@ -8412,7 +8566,7 @@
       <c r="AK41" s="6"/>
       <c r="AL41" s="6"/>
       <c r="AM41" s="9"/>
-      <c r="AN41" s="46"/>
+      <c r="AN41" s="44"/>
       <c r="AO41" s="6"/>
       <c r="AP41" s="6"/>
       <c r="AQ41" s="6"/>
@@ -8477,9 +8631,11 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="G42" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="9"/>
@@ -8510,7 +8666,7 @@
       <c r="AK42" s="6"/>
       <c r="AL42" s="6"/>
       <c r="AM42" s="9"/>
-      <c r="AN42" s="46"/>
+      <c r="AN42" s="44"/>
       <c r="AO42" s="6"/>
       <c r="AP42" s="6"/>
       <c r="AQ42" s="6"/>
@@ -8575,9 +8731,14 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="G43" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" s="55">
+        <f>SUM(AA29,AE29,AI29,AM29,AV29,AZ29,BD29,BH29,)/SUM(AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
+        <v>0.54794520547945202</v>
+      </c>
+      <c r="I43" s="56"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="9"/>
@@ -8608,7 +8769,7 @@
       <c r="AK43" s="6"/>
       <c r="AL43" s="6"/>
       <c r="AM43" s="9"/>
-      <c r="AN43" s="46"/>
+      <c r="AN43" s="44"/>
       <c r="AO43" s="6"/>
       <c r="AP43" s="6"/>
       <c r="AQ43" s="6"/>
@@ -8673,9 +8834,14 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="G44" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44" s="55">
+        <f>SUM(AA30,AE30,AI30,AM30,AV30,AZ30,BD30,BH30,)/SUM(AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
+        <v>0.43835616438356162</v>
+      </c>
+      <c r="I44" s="56"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="9"/>
@@ -8706,7 +8872,7 @@
       <c r="AK44" s="6"/>
       <c r="AL44" s="6"/>
       <c r="AM44" s="9"/>
-      <c r="AN44" s="46"/>
+      <c r="AN44" s="44"/>
       <c r="AO44" s="6"/>
       <c r="AP44" s="6"/>
       <c r="AQ44" s="6"/>
@@ -8804,7 +8970,7 @@
       <c r="AK45" s="6"/>
       <c r="AL45" s="6"/>
       <c r="AM45" s="9"/>
-      <c r="AN45" s="46"/>
+      <c r="AN45" s="44"/>
       <c r="AO45" s="6"/>
       <c r="AP45" s="6"/>
       <c r="AQ45" s="6"/>
@@ -8869,9 +9035,11 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="G46" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="9"/>
@@ -8902,7 +9070,7 @@
       <c r="AK46" s="6"/>
       <c r="AL46" s="6"/>
       <c r="AM46" s="9"/>
-      <c r="AN46" s="46"/>
+      <c r="AN46" s="44"/>
       <c r="AO46" s="6"/>
       <c r="AP46" s="6"/>
       <c r="AQ46" s="6"/>
@@ -8967,9 +9135,14 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="G47" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="55">
+        <f>SUM(L38,O38,R38,U38,AA38,AE38,AI38,AM38,AV38,AZ38,BD38,BH38,)/SUM(L19,O19,R19,U19,AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
+        <v>0.39814814814814814</v>
+      </c>
+      <c r="I47" s="56"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="9"/>
@@ -9000,7 +9173,7 @@
       <c r="AK47" s="6"/>
       <c r="AL47" s="6"/>
       <c r="AM47" s="9"/>
-      <c r="AN47" s="46"/>
+      <c r="AN47" s="44"/>
       <c r="AO47" s="6"/>
       <c r="AP47" s="6"/>
       <c r="AQ47" s="6"/>
@@ -9065,9 +9238,14 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="G48" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="55">
+        <f>SUM(L39,O39,R39,U39,AA39,AE39,AI39,AM39,AV39,AZ39,BD39,BH39)/SUM(L19,O19,R19,U19,AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="I48" s="56"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="9"/>
@@ -9098,7 +9276,7 @@
       <c r="AK48" s="6"/>
       <c r="AL48" s="6"/>
       <c r="AM48" s="9"/>
-      <c r="AN48" s="46"/>
+      <c r="AN48" s="44"/>
       <c r="AO48" s="6"/>
       <c r="AP48" s="6"/>
       <c r="AQ48" s="6"/>
@@ -9196,7 +9374,7 @@
       <c r="AK49" s="6"/>
       <c r="AL49" s="6"/>
       <c r="AM49" s="9"/>
-      <c r="AN49" s="46"/>
+      <c r="AN49" s="44"/>
       <c r="AO49" s="6"/>
       <c r="AP49" s="6"/>
       <c r="AQ49" s="6"/>
@@ -9294,7 +9472,7 @@
       <c r="AK50" s="6"/>
       <c r="AL50" s="6"/>
       <c r="AM50" s="6"/>
-      <c r="AN50" s="46"/>
+      <c r="AN50" s="44"/>
       <c r="AO50" s="9"/>
       <c r="AP50" s="6"/>
       <c r="AQ50" s="6"/>
@@ -9393,7 +9571,7 @@
       <c r="AK51" s="9"/>
       <c r="AL51" s="6"/>
       <c r="AM51" s="6"/>
-      <c r="AN51" s="46"/>
+      <c r="AN51" s="44"/>
       <c r="AO51" s="6"/>
       <c r="AP51" s="9"/>
       <c r="AQ51" s="6"/>
@@ -9454,26 +9632,26 @@
       <c r="CT51" s="6"/>
     </row>
     <row r="52" spans="1:98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="51" t="s">
+      <c r="F52" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="51" t="s">
+      <c r="K52" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="9"/>
@@ -9499,7 +9677,7 @@
       <c r="AK52" s="9"/>
       <c r="AL52" s="6"/>
       <c r="AM52" s="6"/>
-      <c r="AN52" s="46"/>
+      <c r="AN52" s="44"/>
       <c r="AO52" s="6"/>
       <c r="AP52" s="9"/>
       <c r="AQ52" s="6"/>
@@ -9617,7 +9795,7 @@
       <c r="AK53" s="9"/>
       <c r="AL53" s="6"/>
       <c r="AM53" s="6"/>
-      <c r="AN53" s="46"/>
+      <c r="AN53" s="44"/>
       <c r="AO53" s="6"/>
       <c r="AP53" s="9"/>
       <c r="AQ53" s="6"/>
@@ -9750,7 +9928,7 @@
       <c r="AK54" s="9"/>
       <c r="AL54" s="6"/>
       <c r="AM54" s="6"/>
-      <c r="AN54" s="46"/>
+      <c r="AN54" s="44"/>
       <c r="AO54" s="6"/>
       <c r="AP54" s="9"/>
       <c r="AQ54" s="6"/>
@@ -9874,7 +10052,7 @@
       <c r="AK55" s="9"/>
       <c r="AL55" s="6"/>
       <c r="AM55" s="6"/>
-      <c r="AN55" s="46"/>
+      <c r="AN55" s="44"/>
       <c r="AO55" s="6"/>
       <c r="AP55" s="9"/>
       <c r="AQ55" s="6"/>
@@ -9990,7 +10168,7 @@
       <c r="AK56" s="9"/>
       <c r="AL56" s="6"/>
       <c r="AM56" s="6"/>
-      <c r="AN56" s="46"/>
+      <c r="AN56" s="44"/>
       <c r="AO56" s="6"/>
       <c r="AP56" s="9"/>
       <c r="AQ56" s="6"/>
@@ -10090,7 +10268,7 @@
       <c r="AK57" s="9"/>
       <c r="AL57" s="6"/>
       <c r="AM57" s="6"/>
-      <c r="AN57" s="46"/>
+      <c r="AN57" s="44"/>
       <c r="AO57" s="6"/>
       <c r="AP57" s="9"/>
       <c r="AQ57" s="6"/>
@@ -10190,7 +10368,7 @@
       <c r="AK58" s="9"/>
       <c r="AL58" s="6"/>
       <c r="AM58" s="6"/>
-      <c r="AN58" s="46"/>
+      <c r="AN58" s="44"/>
       <c r="AO58" s="6"/>
       <c r="AP58" s="9"/>
       <c r="AQ58" s="6"/>
@@ -10290,7 +10468,7 @@
       <c r="AK59" s="6"/>
       <c r="AL59" s="6"/>
       <c r="AM59" s="6"/>
-      <c r="AN59" s="46"/>
+      <c r="AN59" s="44"/>
       <c r="AO59" s="9"/>
       <c r="AP59" s="6"/>
       <c r="AQ59" s="6"/>
@@ -10389,7 +10567,7 @@
       <c r="AK60" s="6"/>
       <c r="AL60" s="6"/>
       <c r="AM60" s="9"/>
-      <c r="AN60" s="46"/>
+      <c r="AN60" s="44"/>
       <c r="AO60" s="6"/>
       <c r="AP60" s="6"/>
       <c r="AQ60" s="6"/>
@@ -10487,7 +10665,7 @@
       <c r="AK61" s="6"/>
       <c r="AL61" s="6"/>
       <c r="AM61" s="9"/>
-      <c r="AN61" s="46"/>
+      <c r="AN61" s="44"/>
       <c r="AO61" s="6"/>
       <c r="AP61" s="6"/>
       <c r="AQ61" s="6"/>
@@ -10585,7 +10763,7 @@
       <c r="AK62" s="6"/>
       <c r="AL62" s="6"/>
       <c r="AM62" s="9"/>
-      <c r="AN62" s="46"/>
+      <c r="AN62" s="44"/>
       <c r="AO62" s="6"/>
       <c r="AP62" s="6"/>
       <c r="AQ62" s="6"/>
@@ -10683,7 +10861,7 @@
       <c r="AK63" s="6"/>
       <c r="AL63" s="6"/>
       <c r="AM63" s="9"/>
-      <c r="AN63" s="46"/>
+      <c r="AN63" s="44"/>
       <c r="AO63" s="6"/>
       <c r="AP63" s="6"/>
       <c r="AQ63" s="6"/>
@@ -10781,7 +10959,7 @@
       <c r="AK64" s="6"/>
       <c r="AL64" s="6"/>
       <c r="AM64" s="9"/>
-      <c r="AN64" s="46"/>
+      <c r="AN64" s="44"/>
       <c r="AO64" s="6"/>
       <c r="AP64" s="6"/>
       <c r="AQ64" s="6"/>
@@ -10879,7 +11057,7 @@
       <c r="AK65" s="6"/>
       <c r="AL65" s="6"/>
       <c r="AM65" s="9"/>
-      <c r="AN65" s="46"/>
+      <c r="AN65" s="44"/>
       <c r="AO65" s="6"/>
       <c r="AP65" s="6"/>
       <c r="AQ65" s="6"/>
@@ -10977,7 +11155,7 @@
       <c r="AK66" s="6"/>
       <c r="AL66" s="6"/>
       <c r="AM66" s="9"/>
-      <c r="AN66" s="46"/>
+      <c r="AN66" s="44"/>
       <c r="AO66" s="6"/>
       <c r="AP66" s="6"/>
       <c r="AQ66" s="6"/>
@@ -11075,7 +11253,7 @@
       <c r="AK67" s="6"/>
       <c r="AL67" s="6"/>
       <c r="AM67" s="9"/>
-      <c r="AN67" s="46"/>
+      <c r="AN67" s="44"/>
       <c r="AO67" s="6"/>
       <c r="AP67" s="6"/>
       <c r="AQ67" s="6"/>
@@ -11173,7 +11351,7 @@
       <c r="AK68" s="6"/>
       <c r="AL68" s="6"/>
       <c r="AM68" s="9"/>
-      <c r="AN68" s="46"/>
+      <c r="AN68" s="44"/>
       <c r="AO68" s="6"/>
       <c r="AP68" s="6"/>
       <c r="AQ68" s="6"/>
@@ -11271,7 +11449,7 @@
       <c r="AK69" s="6"/>
       <c r="AL69" s="6"/>
       <c r="AM69" s="9"/>
-      <c r="AN69" s="46"/>
+      <c r="AN69" s="44"/>
       <c r="AO69" s="6"/>
       <c r="AP69" s="6"/>
       <c r="AQ69" s="6"/>
@@ -11369,7 +11547,7 @@
       <c r="AK70" s="6"/>
       <c r="AL70" s="6"/>
       <c r="AM70" s="9"/>
-      <c r="AN70" s="46"/>
+      <c r="AN70" s="44"/>
       <c r="AO70" s="6"/>
       <c r="AP70" s="6"/>
       <c r="AQ70" s="6"/>
@@ -11467,7 +11645,7 @@
       <c r="AK71" s="6"/>
       <c r="AL71" s="6"/>
       <c r="AM71" s="9"/>
-      <c r="AN71" s="46"/>
+      <c r="AN71" s="44"/>
       <c r="AO71" s="6"/>
       <c r="AP71" s="6"/>
       <c r="AQ71" s="6"/>
@@ -11565,7 +11743,7 @@
       <c r="AK72" s="6"/>
       <c r="AL72" s="6"/>
       <c r="AM72" s="9"/>
-      <c r="AN72" s="46"/>
+      <c r="AN72" s="44"/>
       <c r="AO72" s="6"/>
       <c r="AP72" s="6"/>
       <c r="AQ72" s="6"/>
@@ -11663,7 +11841,7 @@
       <c r="AK73" s="6"/>
       <c r="AL73" s="6"/>
       <c r="AM73" s="9"/>
-      <c r="AN73" s="46"/>
+      <c r="AN73" s="44"/>
       <c r="AO73" s="6"/>
       <c r="AP73" s="6"/>
       <c r="AQ73" s="6"/>
@@ -11761,7 +11939,7 @@
       <c r="AK74" s="6"/>
       <c r="AL74" s="6"/>
       <c r="AM74" s="9"/>
-      <c r="AN74" s="46"/>
+      <c r="AN74" s="44"/>
       <c r="AO74" s="6"/>
       <c r="AP74" s="6"/>
       <c r="AQ74" s="6"/>
@@ -11859,7 +12037,7 @@
       <c r="AK75" s="6"/>
       <c r="AL75" s="6"/>
       <c r="AM75" s="9"/>
-      <c r="AN75" s="46"/>
+      <c r="AN75" s="44"/>
       <c r="AO75" s="6"/>
       <c r="AP75" s="6"/>
       <c r="AQ75" s="6"/>
@@ -11957,7 +12135,7 @@
       <c r="AK76" s="6"/>
       <c r="AL76" s="6"/>
       <c r="AM76" s="9"/>
-      <c r="AN76" s="46"/>
+      <c r="AN76" s="44"/>
       <c r="AO76" s="6"/>
       <c r="AP76" s="6"/>
       <c r="AQ76" s="6"/>
@@ -12055,7 +12233,7 @@
       <c r="AK77" s="6"/>
       <c r="AL77" s="6"/>
       <c r="AM77" s="9"/>
-      <c r="AN77" s="46"/>
+      <c r="AN77" s="44"/>
       <c r="AO77" s="6"/>
       <c r="AP77" s="6"/>
       <c r="AQ77" s="6"/>
@@ -12153,7 +12331,7 @@
       <c r="AK78" s="6"/>
       <c r="AL78" s="6"/>
       <c r="AM78" s="9"/>
-      <c r="AN78" s="46"/>
+      <c r="AN78" s="44"/>
       <c r="AO78" s="6"/>
       <c r="AP78" s="6"/>
       <c r="AQ78" s="6"/>
@@ -12251,7 +12429,7 @@
       <c r="AK79" s="6"/>
       <c r="AL79" s="6"/>
       <c r="AM79" s="9"/>
-      <c r="AN79" s="46"/>
+      <c r="AN79" s="44"/>
       <c r="AO79" s="6"/>
       <c r="AP79" s="6"/>
       <c r="AQ79" s="6"/>
@@ -12349,7 +12527,7 @@
       <c r="AK80" s="6"/>
       <c r="AL80" s="6"/>
       <c r="AM80" s="9"/>
-      <c r="AN80" s="46"/>
+      <c r="AN80" s="44"/>
       <c r="AO80" s="6"/>
       <c r="AP80" s="6"/>
       <c r="AQ80" s="6"/>
@@ -12447,7 +12625,7 @@
       <c r="AK81" s="6"/>
       <c r="AL81" s="6"/>
       <c r="AM81" s="9"/>
-      <c r="AN81" s="46"/>
+      <c r="AN81" s="44"/>
       <c r="AO81" s="6"/>
       <c r="AP81" s="6"/>
       <c r="AQ81" s="6"/>
@@ -12545,7 +12723,7 @@
       <c r="AK82" s="6"/>
       <c r="AL82" s="6"/>
       <c r="AM82" s="9"/>
-      <c r="AN82" s="46"/>
+      <c r="AN82" s="44"/>
       <c r="AO82" s="6"/>
       <c r="AP82" s="6"/>
       <c r="AQ82" s="6"/>
@@ -12643,7 +12821,7 @@
       <c r="AK83" s="6"/>
       <c r="AL83" s="6"/>
       <c r="AM83" s="9"/>
-      <c r="AN83" s="46"/>
+      <c r="AN83" s="44"/>
       <c r="AO83" s="6"/>
       <c r="AP83" s="6"/>
       <c r="AQ83" s="6"/>
@@ -12741,7 +12919,7 @@
       <c r="AK84" s="6"/>
       <c r="AL84" s="6"/>
       <c r="AM84" s="9"/>
-      <c r="AN84" s="46"/>
+      <c r="AN84" s="44"/>
       <c r="AO84" s="6"/>
       <c r="AP84" s="6"/>
       <c r="AQ84" s="6"/>
@@ -12839,7 +13017,7 @@
       <c r="AK85" s="6"/>
       <c r="AL85" s="6"/>
       <c r="AM85" s="9"/>
-      <c r="AN85" s="46"/>
+      <c r="AN85" s="44"/>
       <c r="AO85" s="6"/>
       <c r="AP85" s="6"/>
       <c r="AQ85" s="6"/>
@@ -12937,7 +13115,7 @@
       <c r="AK86" s="6"/>
       <c r="AL86" s="6"/>
       <c r="AM86" s="9"/>
-      <c r="AN86" s="46"/>
+      <c r="AN86" s="44"/>
       <c r="AO86" s="6"/>
       <c r="AP86" s="6"/>
       <c r="AQ86" s="6"/>
@@ -13035,7 +13213,7 @@
       <c r="AK87" s="6"/>
       <c r="AL87" s="6"/>
       <c r="AM87" s="9"/>
-      <c r="AN87" s="46"/>
+      <c r="AN87" s="44"/>
       <c r="AO87" s="6"/>
       <c r="AP87" s="6"/>
       <c r="AQ87" s="6"/>
@@ -13133,7 +13311,7 @@
       <c r="AK88" s="6"/>
       <c r="AL88" s="6"/>
       <c r="AM88" s="9"/>
-      <c r="AN88" s="46"/>
+      <c r="AN88" s="44"/>
       <c r="AO88" s="6"/>
       <c r="AP88" s="6"/>
       <c r="AQ88" s="6"/>
@@ -13231,7 +13409,7 @@
       <c r="AK89" s="6"/>
       <c r="AL89" s="6"/>
       <c r="AM89" s="9"/>
-      <c r="AN89" s="46"/>
+      <c r="AN89" s="44"/>
       <c r="AO89" s="6"/>
       <c r="AP89" s="6"/>
       <c r="AQ89" s="6"/>
@@ -13329,7 +13507,7 @@
       <c r="AK90" s="6"/>
       <c r="AL90" s="6"/>
       <c r="AM90" s="9"/>
-      <c r="AN90" s="46"/>
+      <c r="AN90" s="44"/>
       <c r="AO90" s="6"/>
       <c r="AP90" s="6"/>
       <c r="AQ90" s="6"/>
@@ -13391,7 +13569,7 @@
   <sortState ref="A2:BL18">
     <sortCondition descending="1" ref="A2"/>
   </sortState>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="F52:I52"/>
     <mergeCell ref="K52:N52"/>
@@ -13400,12 +13578,14 @@
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/UserStudies/Digital Synesthesia - Proximity (Responses).xlsx
+++ b/UserStudies/Digital Synesthesia - Proximity (Responses).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="122">
   <si>
     <t>Timestamp</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>Exercise 1 total percentage of correct</t>
+  </si>
+  <si>
+    <t>Exercise 2 total percentage of correct</t>
+  </si>
+  <si>
+    <t>Exercise 3 total percentage of correct</t>
   </si>
 </sst>
 </file>
@@ -777,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -931,24 +937,6 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -992,6 +980,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1125,11 +1134,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="138420992"/>
-        <c:axId val="138422528"/>
+        <c:axId val="132130304"/>
+        <c:axId val="132131840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138420992"/>
+        <c:axId val="132130304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138422528"/>
+        <c:crossAx val="132131840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1146,7 +1155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138422528"/>
+        <c:axId val="132131840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,7 +1166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138420992"/>
+        <c:crossAx val="132130304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1500,9 +1509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CT90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U18" sqref="U2:U18"/>
+      <selection pane="bottomLeft" activeCell="AV2" sqref="AV2:AV18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1520,7 +1529,29 @@
     <col min="20" max="20" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="58.140625" customWidth="1"/>
+    <col min="24" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="17.140625" style="47"/>
+    <col min="48" max="48" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1777,40 +1808,40 @@
       <c r="I2" s="29">
         <v>1</v>
       </c>
-      <c r="J2" s="58">
-        <v>1</v>
-      </c>
-      <c r="K2" s="59">
-        <v>1</v>
-      </c>
-      <c r="L2" s="60">
-        <v>1</v>
-      </c>
-      <c r="M2" s="59">
+      <c r="J2" s="52">
+        <v>1</v>
+      </c>
+      <c r="K2" s="53">
+        <v>1</v>
+      </c>
+      <c r="L2" s="54">
+        <v>1</v>
+      </c>
+      <c r="M2" s="53">
         <v>3</v>
       </c>
-      <c r="N2" s="59">
+      <c r="N2" s="53">
         <v>2</v>
       </c>
-      <c r="O2" s="60">
+      <c r="O2" s="54">
         <v>0</v>
       </c>
-      <c r="P2" s="59">
+      <c r="P2" s="53">
         <v>2</v>
       </c>
-      <c r="Q2" s="59">
-        <v>1</v>
-      </c>
-      <c r="R2" s="60">
+      <c r="Q2" s="53">
+        <v>1</v>
+      </c>
+      <c r="R2" s="54">
         <v>0</v>
       </c>
-      <c r="S2" s="59">
+      <c r="S2" s="53">
         <v>0</v>
       </c>
-      <c r="T2" s="59">
+      <c r="T2" s="53">
         <v>0</v>
       </c>
-      <c r="U2" s="61">
+      <c r="U2" s="55">
         <v>1</v>
       </c>
       <c r="V2" s="28" t="s">
@@ -2014,7 +2045,7 @@
       <c r="I3" s="31">
         <v>1</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="56">
         <v>2</v>
       </c>
       <c r="K3" s="36">
@@ -2049,7 +2080,7 @@
       <c r="T3" s="36">
         <v>2</v>
       </c>
-      <c r="U3" s="63">
+      <c r="U3" s="57">
         <f t="shared" ref="U3:U18" si="2">IF((S3=T3), 1, 0)</f>
         <v>1</v>
       </c>
@@ -2254,7 +2285,7 @@
       <c r="I4" s="31">
         <v>1</v>
       </c>
-      <c r="J4" s="62">
+      <c r="J4" s="56">
         <v>1</v>
       </c>
       <c r="K4" s="36">
@@ -2281,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="15">
-        <f t="shared" ref="R3:R18" si="12">IF((P4=Q4), 1, 0)</f>
+        <f t="shared" ref="R4:R18" si="12">IF((P4=Q4), 1, 0)</f>
         <v>1</v>
       </c>
       <c r="S4" s="36">
@@ -2290,7 +2321,7 @@
       <c r="T4" s="36">
         <v>3</v>
       </c>
-      <c r="U4" s="63">
+      <c r="U4" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2495,7 +2526,7 @@
       <c r="I5" s="31">
         <v>1</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="56">
         <v>1</v>
       </c>
       <c r="K5" s="36">
@@ -2531,7 +2562,7 @@
       <c r="T5" s="36">
         <v>0</v>
       </c>
-      <c r="U5" s="63">
+      <c r="U5" s="57">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2736,7 +2767,7 @@
       <c r="I6" s="31">
         <v>1</v>
       </c>
-      <c r="J6" s="62">
+      <c r="J6" s="56">
         <v>2</v>
       </c>
       <c r="K6" s="36">
@@ -2772,7 +2803,7 @@
       <c r="T6" s="36">
         <v>2</v>
       </c>
-      <c r="U6" s="63">
+      <c r="U6" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2975,7 +3006,7 @@
       <c r="I7" s="31">
         <v>1</v>
       </c>
-      <c r="J7" s="62">
+      <c r="J7" s="56">
         <v>3</v>
       </c>
       <c r="K7" s="36">
@@ -3011,7 +3042,7 @@
       <c r="T7" s="36">
         <v>3</v>
       </c>
-      <c r="U7" s="63">
+      <c r="U7" s="57">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -3216,7 +3247,7 @@
       <c r="I8" s="31">
         <v>1</v>
       </c>
-      <c r="J8" s="62">
+      <c r="J8" s="56">
         <v>1</v>
       </c>
       <c r="K8" s="36">
@@ -3252,7 +3283,7 @@
       <c r="T8" s="36">
         <v>2</v>
       </c>
-      <c r="U8" s="63">
+      <c r="U8" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3457,7 +3488,7 @@
       <c r="I9" s="31">
         <v>1</v>
       </c>
-      <c r="J9" s="62">
+      <c r="J9" s="56">
         <v>2</v>
       </c>
       <c r="K9" s="36">
@@ -3493,7 +3524,7 @@
       <c r="T9" s="36">
         <v>0</v>
       </c>
-      <c r="U9" s="63">
+      <c r="U9" s="57">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -3698,7 +3729,7 @@
       <c r="I10" s="31">
         <v>1</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="56">
         <v>3</v>
       </c>
       <c r="K10" s="36">
@@ -3734,7 +3765,7 @@
       <c r="T10" s="36">
         <v>1</v>
       </c>
-      <c r="U10" s="63">
+      <c r="U10" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3939,7 +3970,7 @@
       <c r="I11" s="31">
         <v>1</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="56">
         <v>2</v>
       </c>
       <c r="K11" s="36">
@@ -3975,7 +4006,7 @@
       <c r="T11" s="36">
         <v>2</v>
       </c>
-      <c r="U11" s="63">
+      <c r="U11" s="57">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4180,7 +4211,7 @@
       <c r="I12" s="31">
         <v>1</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="56">
         <v>2</v>
       </c>
       <c r="K12" s="36">
@@ -4216,7 +4247,7 @@
       <c r="T12" s="36">
         <v>0</v>
       </c>
-      <c r="U12" s="63">
+      <c r="U12" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4421,7 +4452,7 @@
       <c r="I13" s="31">
         <v>1</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="56">
         <v>2</v>
       </c>
       <c r="K13" s="36">
@@ -4457,7 +4488,7 @@
       <c r="T13" s="36">
         <v>2</v>
       </c>
-      <c r="U13" s="63">
+      <c r="U13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4662,7 +4693,7 @@
       <c r="I14" s="31">
         <v>1</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="56">
         <v>2</v>
       </c>
       <c r="K14" s="36">
@@ -4698,7 +4729,7 @@
       <c r="T14" s="36">
         <v>2</v>
       </c>
-      <c r="U14" s="63">
+      <c r="U14" s="57">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4903,7 +4934,7 @@
       <c r="I15" s="31">
         <v>1</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="56">
         <v>1</v>
       </c>
       <c r="K15" s="36">
@@ -4939,7 +4970,7 @@
       <c r="T15" s="36">
         <v>2</v>
       </c>
-      <c r="U15" s="63">
+      <c r="U15" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5142,7 +5173,7 @@
       <c r="I16" s="31">
         <v>1</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="56">
         <v>2</v>
       </c>
       <c r="K16" s="36">
@@ -5178,7 +5209,7 @@
       <c r="T16" s="36">
         <v>3</v>
       </c>
-      <c r="U16" s="63">
+      <c r="U16" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5383,7 +5414,7 @@
       <c r="I17" s="31">
         <v>1</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="56">
         <v>2</v>
       </c>
       <c r="K17" s="36">
@@ -5419,7 +5450,7 @@
       <c r="T17" s="36">
         <v>3</v>
       </c>
-      <c r="U17" s="63">
+      <c r="U17" s="57">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5621,46 +5652,46 @@
       <c r="H18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="57">
-        <v>1</v>
-      </c>
-      <c r="J18" s="64">
+      <c r="I18" s="51">
+        <v>1</v>
+      </c>
+      <c r="J18" s="58">
         <v>2</v>
       </c>
-      <c r="K18" s="65">
+      <c r="K18" s="59">
         <v>3</v>
       </c>
-      <c r="L18" s="66">
+      <c r="L18" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="65">
+      <c r="M18" s="59">
         <v>2</v>
       </c>
-      <c r="N18" s="65">
+      <c r="N18" s="59">
         <v>2</v>
       </c>
-      <c r="O18" s="67">
+      <c r="O18" s="61">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P18" s="68">
+      <c r="P18" s="62">
         <v>3</v>
       </c>
-      <c r="Q18" s="68">
-        <v>1</v>
-      </c>
-      <c r="R18" s="69">
+      <c r="Q18" s="62">
+        <v>1</v>
+      </c>
+      <c r="R18" s="63">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S18" s="68">
-        <v>1</v>
-      </c>
-      <c r="T18" s="68">
-        <v>1</v>
-      </c>
-      <c r="U18" s="70">
+      <c r="S18" s="62">
+        <v>1</v>
+      </c>
+      <c r="T18" s="62">
+        <v>1</v>
+      </c>
+      <c r="U18" s="64">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6218,19 +6249,19 @@
       <c r="CR21" s="6"/>
     </row>
     <row r="22" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
       <c r="J22" s="6"/>
       <c r="K22" s="13" t="s">
         <v>105</v>
@@ -6407,11 +6438,11 @@
       <c r="G23" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="71">
         <f>SUM(L23,O23,R23,U23,AA26,AE26,AI26,AM26,AV26,AZ26,BD26,BH26)/SUM(L19,O19,U19,R19,AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
         <v>0.46296296296296297</v>
       </c>
-      <c r="I23" s="56"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="6"/>
       <c r="K23" s="13" t="s">
         <v>106</v>
@@ -6586,17 +6617,17 @@
         <f>O19</f>
         <v>7</v>
       </c>
-      <c r="D24" s="71"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H24" s="71">
         <f>SUM(L22,O22,R22,U22,AA25,AE25,AI25,AM25,AV25,AZ25,BD25,BH25)/SUM(L19,O19,R19,U19,AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
         <v>0.52777777777777779</v>
       </c>
-      <c r="I24" s="56"/>
+      <c r="I24" s="72"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="9"/>
@@ -7040,10 +7071,10 @@
       <c r="CR27" s="6"/>
     </row>
     <row r="28" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="72"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -7151,12 +7182,12 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
       <c r="K29" s="6"/>
       <c r="L29" s="9"/>
       <c r="M29" s="6"/>
@@ -7429,8 +7460,10 @@
       <c r="CR30" s="6"/>
     </row>
     <row r="31" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="73"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -7538,8 +7571,13 @@
       <c r="CR31" s="6"/>
     </row>
     <row r="32" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="66">
+        <f>AVERAGE(AA2:AA18,AE2:AE18,AI2:AI18,AM2:AM18)</f>
+        <v>0.54411764705882348</v>
+      </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -7734,16 +7772,18 @@
       <c r="CR33" s="6"/>
     </row>
     <row r="34" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="73"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
       <c r="K34" s="6"/>
       <c r="L34" s="9"/>
       <c r="M34" s="6"/>
@@ -7832,8 +7872,13 @@
       <c r="CR34" s="6"/>
     </row>
     <row r="35" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="66">
+        <f>AVERAGE(AV2:AV18,AZ2:AZ18,BD2:BD18,BH2:BH18)</f>
+        <v>0.54545454545454541</v>
+      </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -8631,11 +8676,11 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="52" t="s">
+      <c r="G42" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="9"/>
@@ -8734,11 +8779,11 @@
       <c r="G43" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="H43" s="55">
+      <c r="H43" s="71">
         <f>SUM(AA29,AE29,AI29,AM29,AV29,AZ29,BD29,BH29,)/SUM(AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
         <v>0.54794520547945202</v>
       </c>
-      <c r="I43" s="56"/>
+      <c r="I43" s="72"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="9"/>
@@ -8837,11 +8882,11 @@
       <c r="G44" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="H44" s="55">
+      <c r="H44" s="71">
         <f>SUM(AA30,AE30,AI30,AM30,AV30,AZ30,BD30,BH30,)/SUM(AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
         <v>0.43835616438356162</v>
       </c>
-      <c r="I44" s="56"/>
+      <c r="I44" s="72"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="9"/>
@@ -9035,11 +9080,11 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="52" t="s">
+      <c r="G46" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="9"/>
@@ -9138,11 +9183,11 @@
       <c r="G47" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="55">
+      <c r="H47" s="71">
         <f>SUM(L38,O38,R38,U38,AA38,AE38,AI38,AM38,AV38,AZ38,BD38,BH38,)/SUM(L19,O19,R19,U19,AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
         <v>0.39814814814814814</v>
       </c>
-      <c r="I47" s="56"/>
+      <c r="I47" s="72"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="9"/>
@@ -9241,11 +9286,11 @@
       <c r="G48" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H48" s="55">
+      <c r="H48" s="71">
         <f>SUM(L39,O39,R39,U39,AA39,AE39,AI39,AM39,AV39,AZ39,BD39,BH39)/SUM(L19,O19,R19,U19,AA19,AE19,AI19,AM19,AV19,AZ19,BD19,BH19)</f>
         <v>0.61111111111111116</v>
       </c>
-      <c r="I48" s="56"/>
+      <c r="I48" s="72"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="9"/>
@@ -9632,26 +9677,26 @@
       <c r="CT51" s="6"/>
     </row>
     <row r="52" spans="1:98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="52" t="s">
+      <c r="F52" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="52" t="s">
+      <c r="K52" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="68"/>
+      <c r="N52" s="68"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="9"/>
@@ -13569,7 +13614,9 @@
   <sortState ref="A2:BL18">
     <sortCondition descending="1" ref="A2"/>
   </sortState>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="F52:I52"/>
     <mergeCell ref="K52:N52"/>
